--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DC50CA-7FF6-436C-A1FC-2609584A54B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D2A45-72A2-4A5A-BB14-4E65314560F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -53,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -130,39 +130,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,7 +214,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -325,13 +325,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -340,6 +333,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -404,11 +404,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,13 +436,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB36"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W21" sqref="W21"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -453,7 +473,7 @@
     <col min="27" max="28" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -489,7 +509,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>3</v>
       </c>
@@ -503,7 +523,7 @@
       </c>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>3</v>
       </c>
@@ -517,7 +537,7 @@
       </c>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>3</v>
       </c>
@@ -531,7 +551,7 @@
       </c>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>7</v>
       </c>
@@ -545,7 +565,7 @@
       </c>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -559,7 +579,7 @@
       </c>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>7</v>
       </c>
@@ -573,7 +593,7 @@
       </c>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>7</v>
       </c>
@@ -587,7 +607,7 @@
       </c>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -601,7 +621,7 @@
       </c>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>3</v>
       </c>
@@ -615,7 +635,7 @@
       </c>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>7</v>
       </c>
@@ -629,7 +649,7 @@
       </c>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>3</v>
       </c>
@@ -643,7 +663,7 @@
       </c>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>7</v>
       </c>
@@ -657,7 +677,7 @@
       </c>
       <c r="AB13" s="2"/>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>7</v>
       </c>
@@ -671,7 +691,7 @@
       </c>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>3</v>
       </c>
@@ -685,7 +705,7 @@
       </c>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>7</v>
       </c>
@@ -699,21 +719,21 @@
       </c>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="5:28">
+    <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17">
-        <v>1079.08</v>
+        <v>512.35</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
-    <row r="18" spans="5:28">
+    <row r="18" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>3</v>
       </c>
@@ -723,11 +743,11 @@
       </c>
       <c r="S18" s="2"/>
       <c r="T18">
-        <v>512.35</v>
+        <v>2060.9513999999999</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="5:28">
+    <row r="19" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>3</v>
       </c>
@@ -737,55 +757,55 @@
       </c>
       <c r="S19" s="2"/>
       <c r="T19">
-        <v>2060.9513999999999</v>
+        <v>8164.6464999999998</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
-    <row r="20" spans="5:28">
+    <row r="20" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20">
-        <v>8164.6464999999998</v>
+        <v>541.71</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
-    <row r="21" spans="5:28">
+    <row r="21" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21">
-        <v>541.71</v>
+        <v>272.35500000000002</v>
       </c>
       <c r="AB21" s="2"/>
     </row>
-    <row r="22" spans="5:28">
+    <row r="22" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K22" s="2"/>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22">
-        <v>272.35500000000002</v>
+        <v>532.89419999999996</v>
       </c>
       <c r="AB22" s="2"/>
     </row>
-    <row r="23" spans="5:28">
+    <row r="23" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K23" s="2"/>
       <c r="N23" t="s">
@@ -793,25 +813,25 @@
       </c>
       <c r="S23" s="2"/>
       <c r="T23">
-        <v>532.89419999999996</v>
+        <v>2000.5583999999999</v>
       </c>
       <c r="AB23" s="2"/>
     </row>
-    <row r="24" spans="5:28">
+    <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>7</v>
       </c>
       <c r="K24" s="2"/>
       <c r="N24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24">
-        <v>280.6576</v>
+        <v>500</v>
       </c>
       <c r="AB24" s="2"/>
     </row>
-    <row r="25" spans="5:28">
+    <row r="25" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>7</v>
       </c>
@@ -821,11 +841,11 @@
       </c>
       <c r="S25" s="2"/>
       <c r="T25">
-        <v>2000.5583999999999</v>
+        <v>250</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="5:28">
+    <row r="26" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>7</v>
       </c>
@@ -835,11 +855,11 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26">
-        <v>500</v>
+        <v>1000.1964</v>
       </c>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="5:28">
+    <row r="27" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>7</v>
       </c>
@@ -853,7 +873,7 @@
       </c>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="5:28">
+    <row r="28" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>7</v>
       </c>
@@ -863,13 +883,13 @@
       </c>
       <c r="S28" s="2"/>
       <c r="T28">
-        <v>1000.1964</v>
+        <v>2000</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="5:28">
+    <row r="29" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K29" s="2"/>
       <c r="N29" t="s">
@@ -877,13 +897,13 @@
       </c>
       <c r="S29" s="2"/>
       <c r="T29">
-        <v>250</v>
+        <v>1410.91</v>
       </c>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="5:28">
+    <row r="30" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K30" s="2"/>
       <c r="N30" t="s">
@@ -891,11 +911,11 @@
       </c>
       <c r="S30" s="2"/>
       <c r="T30">
-        <v>2000</v>
+        <v>843.71820000000002</v>
       </c>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="5:28">
+    <row r="31" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>3</v>
       </c>
@@ -905,41 +925,41 @@
       </c>
       <c r="S31" s="2"/>
       <c r="T31">
-        <v>1410.91</v>
+        <v>1146.5808</v>
       </c>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="5:28">
+    <row r="32" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K32" s="2"/>
       <c r="N32" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32">
-        <v>843.71820000000002</v>
+        <v>270.23</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="5:28">
+    <row r="33" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K33" s="2"/>
       <c r="N33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33">
-        <v>1146.5808</v>
+        <v>312.98829999999998</v>
       </c>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="5:28">
+    <row r="34" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K34" s="2"/>
       <c r="N34" t="s">
@@ -947,37 +967,9 @@
       </c>
       <c r="S34" s="2"/>
       <c r="T34">
-        <v>270.23</v>
+        <v>538.73540000000003</v>
       </c>
       <c r="AB34" s="2"/>
-    </row>
-    <row r="35" spans="5:28">
-      <c r="E35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="2"/>
-      <c r="N35" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="2"/>
-      <c r="T35">
-        <v>312.98829999999998</v>
-      </c>
-      <c r="AB35" s="2"/>
-    </row>
-    <row r="36" spans="5:28">
-      <c r="E36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" s="2"/>
-      <c r="N36" t="s">
-        <v>4</v>
-      </c>
-      <c r="S36" s="2"/>
-      <c r="T36">
-        <v>538.73540000000003</v>
-      </c>
-      <c r="AB36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D2A45-72A2-4A5A-BB14-4E65314560F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{298C236B-1FB7-4601-97B3-3F7C16ED8DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -34,16 +34,16 @@
     <t>Deposit</t>
   </si>
   <si>
-    <t>Credit Card</t>
+    <t>Crypto</t>
   </si>
   <si>
     <t>Wiretransfer</t>
   </si>
   <si>
-    <t>Crypto</t>
+    <t>Withdrawal</t>
   </si>
   <si>
-    <t>Withdrawal</t>
+    <t>Credit Card</t>
   </si>
 </sst>
 </file>
@@ -436,17 +436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
@@ -519,7 +519,7 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2">
-        <v>268.25</v>
+        <v>625.74890000000005</v>
       </c>
       <c r="AB2" s="2"/>
     </row>
@@ -529,11 +529,11 @@
       </c>
       <c r="K3" s="2"/>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3">
-        <v>6266.1853000000001</v>
+        <v>2093.9180000000001</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
@@ -543,25 +543,25 @@
       </c>
       <c r="K4" s="2"/>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4">
-        <v>1163.8599999999999</v>
+        <v>711.81669999999997</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5" s="2"/>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5">
-        <v>245.7345</v>
+        <v>2307.1005</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
@@ -571,53 +571,53 @@
       </c>
       <c r="K6" s="2"/>
       <c r="N6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6">
-        <v>977.07</v>
+        <v>1150.3203000000001</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K7" s="2"/>
       <c r="N7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7">
-        <v>537.54</v>
+        <v>1157.0929000000001</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2"/>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8">
-        <v>537.70500000000004</v>
+        <v>2314.66</v>
       </c>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2"/>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9">
-        <v>21501.599999999999</v>
+        <v>4988.3356000000003</v>
       </c>
       <c r="AB9" s="2"/>
     </row>
@@ -627,17 +627,17 @@
       </c>
       <c r="K10" s="2"/>
       <c r="N10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10">
-        <v>521.05949999999996</v>
+        <v>6266.1853000000001</v>
       </c>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2"/>
       <c r="N11" t="s">
@@ -645,69 +645,69 @@
       </c>
       <c r="S11" s="2"/>
       <c r="T11">
-        <v>254.648</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K12" s="2"/>
       <c r="N12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12">
-        <v>473.47</v>
+        <v>245.7345</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K13" s="2"/>
       <c r="N13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13">
-        <v>5000</v>
+        <v>977.07</v>
       </c>
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14" s="2"/>
       <c r="N14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14">
-        <v>5390.25</v>
+        <v>537.54</v>
       </c>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K15" s="2"/>
       <c r="N15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15">
-        <v>618.09</v>
+        <v>537.70500000000004</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K16" s="2"/>
       <c r="N16" t="s">
@@ -715,7 +715,7 @@
       </c>
       <c r="S16" s="2"/>
       <c r="T16">
-        <v>269.67750000000001</v>
+        <v>21501.599999999999</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
@@ -725,25 +725,25 @@
       </c>
       <c r="K17" s="2"/>
       <c r="N17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17">
-        <v>512.35</v>
+        <v>521.05949999999996</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18">
-        <v>2060.9513999999999</v>
+        <v>254.648</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
@@ -753,31 +753,31 @@
       </c>
       <c r="K19" s="2"/>
       <c r="N19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19">
-        <v>8164.6464999999998</v>
+        <v>473.47</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20">
-        <v>541.71</v>
+        <v>5000</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" t="s">
@@ -785,7 +785,7 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21">
-        <v>272.35500000000002</v>
+        <v>5390.25</v>
       </c>
       <c r="AB21" s="2"/>
     </row>
@@ -795,95 +795,95 @@
       </c>
       <c r="K22" s="2"/>
       <c r="N22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22">
-        <v>532.89419999999996</v>
+        <v>618.09</v>
       </c>
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K23" s="2"/>
       <c r="N23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23">
-        <v>2000.5583999999999</v>
+        <v>269.67750000000001</v>
       </c>
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K24" s="2"/>
       <c r="N24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24">
-        <v>500</v>
+        <v>512.35</v>
       </c>
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K25" s="2"/>
       <c r="N25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25">
-        <v>250</v>
+        <v>2060.9513999999999</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K26" s="2"/>
       <c r="N26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26">
-        <v>1000.1964</v>
+        <v>8164.6464999999998</v>
       </c>
       <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K27" s="2"/>
       <c r="N27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27">
-        <v>250</v>
+        <v>541.71</v>
       </c>
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K28" s="2"/>
       <c r="N28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28">
-        <v>2000</v>
+        <v>272.35500000000002</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
@@ -893,45 +893,45 @@
       </c>
       <c r="K29" s="2"/>
       <c r="N29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29">
-        <v>1410.91</v>
+        <v>532.89419999999996</v>
       </c>
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K30" s="2"/>
       <c r="N30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30">
-        <v>843.71820000000002</v>
+        <v>2000.5583999999999</v>
       </c>
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K31" s="2"/>
       <c r="N31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31">
-        <v>1146.5808</v>
+        <v>500</v>
       </c>
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K32" s="2"/>
       <c r="N32" t="s">
@@ -939,27 +939,27 @@
       </c>
       <c r="S32" s="2"/>
       <c r="T32">
-        <v>270.23</v>
+        <v>250</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K33" s="2"/>
       <c r="N33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33">
-        <v>312.98829999999998</v>
+        <v>1000.1964</v>
       </c>
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K34" s="2"/>
       <c r="N34" t="s">
@@ -967,9 +967,107 @@
       </c>
       <c r="S34" s="2"/>
       <c r="T34">
+        <v>250</v>
+      </c>
+      <c r="AB34" s="2"/>
+    </row>
+    <row r="35" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="N35" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35">
+        <v>2000</v>
+      </c>
+      <c r="AB35" s="2"/>
+    </row>
+    <row r="36" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="N36" t="s">
+        <v>4</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36">
+        <v>1410.91</v>
+      </c>
+      <c r="AB36" s="2"/>
+    </row>
+    <row r="37" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="N37" t="s">
+        <v>4</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37">
+        <v>843.71820000000002</v>
+      </c>
+      <c r="AB37" s="2"/>
+    </row>
+    <row r="38" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" s="2"/>
+      <c r="N38" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38">
+        <v>1146.5808</v>
+      </c>
+      <c r="AB38" s="2"/>
+    </row>
+    <row r="39" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="N39" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39">
+        <v>270.23</v>
+      </c>
+      <c r="AB39" s="2"/>
+    </row>
+    <row r="40" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="2"/>
+      <c r="N40" t="s">
+        <v>5</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40">
+        <v>312.98829999999998</v>
+      </c>
+      <c r="AB40" s="2"/>
+    </row>
+    <row r="41" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="N41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" s="2"/>
+      <c r="T41">
         <v>538.73540000000003</v>
       </c>
-      <c r="AB34" s="2"/>
+      <c r="AB41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{298C236B-1FB7-4601-97B3-3F7C16ED8DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F30D818-9482-40B4-8FEA-06214515E119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="8">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Crypto</t>
   </si>
   <si>
-    <t>Wiretransfer</t>
-  </si>
-  <si>
     <t>Withdrawal</t>
   </si>
   <si>
     <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Wiretransfer</t>
   </si>
 </sst>
 </file>
@@ -62,6 +62,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -436,17 +437,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AB1048576"/>
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
@@ -461,7 +462,7 @@
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="46.85546875" customWidth="1"/>
+    <col min="18" max="18" width="47.28515625" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" customWidth="1"/>
     <col min="21" max="21" width="7.28515625" customWidth="1"/>
@@ -519,7 +520,7 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2">
-        <v>625.74890000000005</v>
+        <v>456.68</v>
       </c>
       <c r="AB2" s="2"/>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="S3" s="2"/>
       <c r="T3">
-        <v>2093.9180000000001</v>
+        <v>1054.9099000000001</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
@@ -547,7 +548,7 @@
       </c>
       <c r="S4" s="2"/>
       <c r="T4">
-        <v>711.81669999999997</v>
+        <v>566.72820000000002</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
@@ -561,7 +562,7 @@
       </c>
       <c r="S5" s="2"/>
       <c r="T5">
-        <v>2307.1005</v>
+        <v>8511.7579999999998</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
@@ -575,7 +576,7 @@
       </c>
       <c r="S6" s="2"/>
       <c r="T6">
-        <v>1150.3203000000001</v>
+        <v>9067.7985000000008</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
@@ -589,13 +590,13 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7">
-        <v>1157.0929000000001</v>
+        <v>228.24</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2"/>
       <c r="N8" t="s">
@@ -603,21 +604,21 @@
       </c>
       <c r="S8" s="2"/>
       <c r="T8">
-        <v>2314.66</v>
+        <v>269.65499999999997</v>
       </c>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2"/>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9">
-        <v>4988.3356000000003</v>
+        <v>269.64249999999998</v>
       </c>
       <c r="AB9" s="2"/>
     </row>
@@ -627,11 +628,11 @@
       </c>
       <c r="K10" s="2"/>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10">
-        <v>6266.1853000000001</v>
+        <v>12625.8388</v>
       </c>
       <c r="AB10" s="2"/>
     </row>
@@ -645,21 +646,21 @@
       </c>
       <c r="S11" s="2"/>
       <c r="T11">
-        <v>1163.8599999999999</v>
+        <v>1264.4450999999999</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2"/>
       <c r="N12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12">
-        <v>245.7345</v>
+        <v>506.15089999999998</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
@@ -669,31 +670,31 @@
       </c>
       <c r="K13" s="2"/>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13">
-        <v>977.07</v>
+        <v>13994.11</v>
       </c>
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2"/>
       <c r="N14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14">
-        <v>537.54</v>
+        <v>2525.3888999999999</v>
       </c>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K15" s="2"/>
       <c r="N15" t="s">
@@ -701,13 +702,13 @@
       </c>
       <c r="S15" s="2"/>
       <c r="T15">
-        <v>537.70500000000004</v>
+        <v>2325.7051000000001</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2"/>
       <c r="N16" t="s">
@@ -715,35 +716,35 @@
       </c>
       <c r="S16" s="2"/>
       <c r="T16">
-        <v>21501.599999999999</v>
+        <v>1163.6212</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17">
-        <v>521.05949999999996</v>
+        <v>6319.8140000000003</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18">
-        <v>254.648</v>
+        <v>281.66000000000003</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
@@ -757,13 +758,13 @@
       </c>
       <c r="S19" s="2"/>
       <c r="T19">
-        <v>473.47</v>
+        <v>1168.5009</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" t="s">
@@ -771,13 +772,13 @@
       </c>
       <c r="S20" s="2"/>
       <c r="T20">
-        <v>5000</v>
+        <v>1479.3526999999999</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" t="s">
@@ -785,7 +786,7 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21">
-        <v>5390.25</v>
+        <v>4192.6170000000002</v>
       </c>
       <c r="AB21" s="2"/>
     </row>
@@ -799,21 +800,21 @@
       </c>
       <c r="S22" s="2"/>
       <c r="T22">
-        <v>618.09</v>
+        <v>625.74890000000005</v>
       </c>
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K23" s="2"/>
       <c r="N23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23">
-        <v>269.67750000000001</v>
+        <v>2093.9180000000001</v>
       </c>
       <c r="AB23" s="2"/>
     </row>
@@ -827,7 +828,7 @@
       </c>
       <c r="S24" s="2"/>
       <c r="T24">
-        <v>512.35</v>
+        <v>711.81669999999997</v>
       </c>
       <c r="AB24" s="2"/>
     </row>
@@ -841,7 +842,7 @@
       </c>
       <c r="S25" s="2"/>
       <c r="T25">
-        <v>2060.9513999999999</v>
+        <v>2307.1005</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
@@ -855,7 +856,7 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26">
-        <v>8164.6464999999998</v>
+        <v>1150.3203000000001</v>
       </c>
       <c r="AB26" s="2"/>
     </row>
@@ -865,25 +866,25 @@
       </c>
       <c r="K27" s="2"/>
       <c r="N27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27">
-        <v>541.71</v>
+        <v>1157.0929000000001</v>
       </c>
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K28" s="2"/>
       <c r="N28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28">
-        <v>272.35500000000002</v>
+        <v>2314.66</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
@@ -897,27 +898,27 @@
       </c>
       <c r="S29" s="2"/>
       <c r="T29">
-        <v>532.89419999999996</v>
+        <v>4988.3356000000003</v>
       </c>
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K30" s="2"/>
       <c r="N30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30">
-        <v>2000.5583999999999</v>
+        <v>6266.1853000000001</v>
       </c>
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K31" s="2"/>
       <c r="N31" t="s">
@@ -925,27 +926,27 @@
       </c>
       <c r="S31" s="2"/>
       <c r="T31">
-        <v>500</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K32" s="2"/>
       <c r="N32" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32">
-        <v>250</v>
+        <v>245.7345</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K33" s="2"/>
       <c r="N33" t="s">
@@ -953,13 +954,13 @@
       </c>
       <c r="S33" s="2"/>
       <c r="T33">
-        <v>1000.1964</v>
+        <v>977.07</v>
       </c>
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" s="2"/>
       <c r="N34" t="s">
@@ -967,13 +968,13 @@
       </c>
       <c r="S34" s="2"/>
       <c r="T34">
-        <v>250</v>
+        <v>537.54</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K35" s="2"/>
       <c r="N35" t="s">
@@ -981,13 +982,13 @@
       </c>
       <c r="S35" s="2"/>
       <c r="T35">
-        <v>2000</v>
+        <v>537.70500000000004</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K36" s="2"/>
       <c r="N36" t="s">
@@ -995,7 +996,7 @@
       </c>
       <c r="S36" s="2"/>
       <c r="T36">
-        <v>1410.91</v>
+        <v>21501.599999999999</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
@@ -1009,65 +1010,345 @@
       </c>
       <c r="S37" s="2"/>
       <c r="T37">
-        <v>843.71820000000002</v>
+        <v>521.05949999999996</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K38" s="2"/>
       <c r="N38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38">
-        <v>1146.5808</v>
+        <v>254.648</v>
       </c>
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K39" s="2"/>
       <c r="N39" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39">
-        <v>270.23</v>
+        <v>473.47</v>
       </c>
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K40" s="2"/>
       <c r="N40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40">
-        <v>312.98829999999998</v>
+        <v>5000</v>
       </c>
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K41" s="2"/>
       <c r="N41" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41">
+        <v>5390.25</v>
+      </c>
+      <c r="AB41" s="2"/>
+    </row>
+    <row r="42" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="N42" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="2"/>
+      <c r="T42">
+        <v>618.09</v>
+      </c>
+      <c r="AB42" s="2"/>
+    </row>
+    <row r="43" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="N43" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43" s="2"/>
+      <c r="T43">
+        <v>269.67750000000001</v>
+      </c>
+      <c r="AB43" s="2"/>
+    </row>
+    <row r="44" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="N44" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="2"/>
+      <c r="T44">
+        <v>512.35</v>
+      </c>
+      <c r="AB44" s="2"/>
+    </row>
+    <row r="45" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="N45" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="2"/>
+      <c r="T45">
+        <v>2060.9513999999999</v>
+      </c>
+      <c r="AB45" s="2"/>
+    </row>
+    <row r="46" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="N46" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="2"/>
+      <c r="T46">
+        <v>8164.6464999999998</v>
+      </c>
+      <c r="AB46" s="2"/>
+    </row>
+    <row r="47" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="N47" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" s="2"/>
+      <c r="T47">
+        <v>541.71</v>
+      </c>
+      <c r="AB47" s="2"/>
+    </row>
+    <row r="48" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="N48" t="s">
+        <v>6</v>
+      </c>
+      <c r="S48" s="2"/>
+      <c r="T48">
+        <v>272.35500000000002</v>
+      </c>
+      <c r="AB48" s="2"/>
+    </row>
+    <row r="49" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="N49" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="2"/>
+      <c r="T49">
+        <v>532.89419999999996</v>
+      </c>
+      <c r="AB49" s="2"/>
+    </row>
+    <row r="50" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="N50" t="s">
+        <v>4</v>
+      </c>
+      <c r="S50" s="2"/>
+      <c r="T50">
+        <v>2000.5583999999999</v>
+      </c>
+      <c r="AB50" s="2"/>
+    </row>
+    <row r="51" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="K51" s="2"/>
+      <c r="N51" t="s">
+        <v>4</v>
+      </c>
+      <c r="S51" s="2"/>
+      <c r="T51">
+        <v>500</v>
+      </c>
+      <c r="AB51" s="2"/>
+    </row>
+    <row r="52" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="2"/>
+      <c r="N52" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="2"/>
+      <c r="T52">
+        <v>250</v>
+      </c>
+      <c r="AB52" s="2"/>
+    </row>
+    <row r="53" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="2"/>
+      <c r="N53" t="s">
+        <v>4</v>
+      </c>
+      <c r="S53" s="2"/>
+      <c r="T53">
+        <v>1000.1964</v>
+      </c>
+      <c r="AB53" s="2"/>
+    </row>
+    <row r="54" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="N54" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54">
+        <v>250</v>
+      </c>
+      <c r="AB54" s="2"/>
+    </row>
+    <row r="55" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55" s="2"/>
+      <c r="N55" t="s">
+        <v>4</v>
+      </c>
+      <c r="S55" s="2"/>
+      <c r="T55">
+        <v>2000</v>
+      </c>
+      <c r="AB55" s="2"/>
+    </row>
+    <row r="56" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="K56" s="2"/>
+      <c r="N56" t="s">
+        <v>4</v>
+      </c>
+      <c r="S56" s="2"/>
+      <c r="T56">
+        <v>1410.91</v>
+      </c>
+      <c r="AB56" s="2"/>
+    </row>
+    <row r="57" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="N57" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57">
+        <v>843.71820000000002</v>
+      </c>
+      <c r="AB57" s="2"/>
+    </row>
+    <row r="58" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="2"/>
+      <c r="N58" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="2"/>
+      <c r="T58">
+        <v>1146.5808</v>
+      </c>
+      <c r="AB58" s="2"/>
+    </row>
+    <row r="59" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="N59" t="s">
+        <v>6</v>
+      </c>
+      <c r="S59" s="2"/>
+      <c r="T59">
+        <v>270.23</v>
+      </c>
+      <c r="AB59" s="2"/>
+    </row>
+    <row r="60" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="2"/>
+      <c r="N60" t="s">
+        <v>7</v>
+      </c>
+      <c r="S60" s="2"/>
+      <c r="T60">
+        <v>312.98829999999998</v>
+      </c>
+      <c r="AB60" s="2"/>
+    </row>
+    <row r="61" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="K61" s="2"/>
+      <c r="N61" t="s">
+        <v>6</v>
+      </c>
+      <c r="S61" s="2"/>
+      <c r="T61">
         <v>538.73540000000003</v>
       </c>
-      <c r="AB41" s="2"/>
+      <c r="AB61" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F30D818-9482-40B4-8FEA-06214515E119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC6341-3685-465E-A4EB-0391103D15A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="8">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -37,13 +37,13 @@
     <t>Crypto</t>
   </si>
   <si>
+    <t>Wiretransfer</t>
+  </si>
+  <si>
     <t>Withdrawal</t>
   </si>
   <si>
     <t>Credit Card</t>
-  </si>
-  <si>
-    <t>Wiretransfer</t>
   </si>
 </sst>
 </file>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB61"/>
+  <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +450,7 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" customWidth="1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2">
-        <v>456.68</v>
+        <v>338.95639999999997</v>
       </c>
       <c r="AB2" s="2"/>
     </row>
@@ -530,11 +530,11 @@
       </c>
       <c r="K3" s="2"/>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3">
-        <v>1054.9099000000001</v>
+        <v>12606.725899999999</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="S4" s="2"/>
       <c r="T4">
-        <v>566.72820000000002</v>
+        <v>456.68</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
@@ -562,7 +562,7 @@
       </c>
       <c r="S5" s="2"/>
       <c r="T5">
-        <v>8511.7579999999998</v>
+        <v>1054.9099000000001</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="S6" s="2"/>
       <c r="T6">
-        <v>9067.7985000000008</v>
+        <v>566.72820000000002</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
@@ -590,13 +590,13 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7">
-        <v>228.24</v>
+        <v>8511.7579999999998</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2"/>
       <c r="N8" t="s">
@@ -604,49 +604,49 @@
       </c>
       <c r="S8" s="2"/>
       <c r="T8">
-        <v>269.65499999999997</v>
+        <v>9067.7985000000008</v>
       </c>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2"/>
       <c r="N9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9">
-        <v>269.64249999999998</v>
+        <v>228.24</v>
       </c>
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K10" s="2"/>
       <c r="N10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10">
-        <v>12625.8388</v>
+        <v>269.65499999999997</v>
       </c>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K11" s="2"/>
       <c r="N11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11">
-        <v>1264.4450999999999</v>
+        <v>269.64249999999998</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
@@ -656,11 +656,11 @@
       </c>
       <c r="K12" s="2"/>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12">
-        <v>506.15089999999998</v>
+        <v>12625.8388</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
@@ -670,11 +670,11 @@
       </c>
       <c r="K13" s="2"/>
       <c r="N13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13">
-        <v>13994.11</v>
+        <v>1264.4450999999999</v>
       </c>
       <c r="AB13" s="2"/>
     </row>
@@ -684,11 +684,11 @@
       </c>
       <c r="K14" s="2"/>
       <c r="N14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14">
-        <v>2525.3888999999999</v>
+        <v>506.15089999999998</v>
       </c>
       <c r="AB14" s="2"/>
     </row>
@@ -698,11 +698,11 @@
       </c>
       <c r="K15" s="2"/>
       <c r="N15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15">
-        <v>2325.7051000000001</v>
+        <v>13994.11</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
@@ -712,25 +712,25 @@
       </c>
       <c r="K16" s="2"/>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16">
-        <v>1163.6212</v>
+        <v>2525.3888999999999</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17">
-        <v>6319.8140000000003</v>
+        <v>2325.7051000000001</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
@@ -744,21 +744,21 @@
       </c>
       <c r="S18" s="2"/>
       <c r="T18">
-        <v>281.66000000000003</v>
+        <v>1163.6212</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19">
-        <v>1168.5009</v>
+        <v>6319.8140000000003</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="S20" s="2"/>
       <c r="T20">
-        <v>1479.3526999999999</v>
+        <v>281.66000000000003</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21">
-        <v>4192.6170000000002</v>
+        <v>1168.5009</v>
       </c>
       <c r="AB21" s="2"/>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="S22" s="2"/>
       <c r="T22">
-        <v>625.74890000000005</v>
+        <v>1479.3526999999999</v>
       </c>
       <c r="AB22" s="2"/>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="S23" s="2"/>
       <c r="T23">
-        <v>2093.9180000000001</v>
+        <v>4192.6170000000002</v>
       </c>
       <c r="AB23" s="2"/>
     </row>
@@ -828,7 +828,7 @@
       </c>
       <c r="S24" s="2"/>
       <c r="T24">
-        <v>711.81669999999997</v>
+        <v>625.74890000000005</v>
       </c>
       <c r="AB24" s="2"/>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="S25" s="2"/>
       <c r="T25">
-        <v>2307.1005</v>
+        <v>2093.9180000000001</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26">
-        <v>1150.3203000000001</v>
+        <v>711.81669999999997</v>
       </c>
       <c r="AB26" s="2"/>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="S27" s="2"/>
       <c r="T27">
-        <v>1157.0929000000001</v>
+        <v>2307.1005</v>
       </c>
       <c r="AB27" s="2"/>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="S28" s="2"/>
       <c r="T28">
-        <v>2314.66</v>
+        <v>1150.3203000000001</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="S29" s="2"/>
       <c r="T29">
-        <v>4988.3356000000003</v>
+        <v>1157.0929000000001</v>
       </c>
       <c r="AB29" s="2"/>
     </row>
@@ -908,11 +908,11 @@
       </c>
       <c r="K30" s="2"/>
       <c r="N30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30">
-        <v>6266.1853000000001</v>
+        <v>2314.66</v>
       </c>
       <c r="AB30" s="2"/>
     </row>
@@ -926,21 +926,21 @@
       </c>
       <c r="S31" s="2"/>
       <c r="T31">
-        <v>1163.8599999999999</v>
+        <v>4988.3356000000003</v>
       </c>
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" s="2"/>
       <c r="N32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32">
-        <v>245.7345</v>
+        <v>6266.1853000000001</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
@@ -954,27 +954,27 @@
       </c>
       <c r="S33" s="2"/>
       <c r="T33">
-        <v>977.07</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34" s="2"/>
       <c r="N34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34">
-        <v>537.54</v>
+        <v>245.7345</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K35" s="2"/>
       <c r="N35" t="s">
@@ -982,13 +982,13 @@
       </c>
       <c r="S35" s="2"/>
       <c r="T35">
-        <v>537.70500000000004</v>
+        <v>977.07</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K36" s="2"/>
       <c r="N36" t="s">
@@ -996,13 +996,13 @@
       </c>
       <c r="S36" s="2"/>
       <c r="T36">
-        <v>21501.599999999999</v>
+        <v>537.54</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K37" s="2"/>
       <c r="N37" t="s">
@@ -1010,21 +1010,21 @@
       </c>
       <c r="S37" s="2"/>
       <c r="T37">
-        <v>521.05949999999996</v>
+        <v>537.70500000000004</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K38" s="2"/>
       <c r="N38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38">
-        <v>254.648</v>
+        <v>21501.599999999999</v>
       </c>
       <c r="AB38" s="2"/>
     </row>
@@ -1038,27 +1038,27 @@
       </c>
       <c r="S39" s="2"/>
       <c r="T39">
-        <v>473.47</v>
+        <v>521.05949999999996</v>
       </c>
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K40" s="2"/>
       <c r="N40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40">
-        <v>5000</v>
+        <v>254.648</v>
       </c>
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K41" s="2"/>
       <c r="N41" t="s">
@@ -1066,13 +1066,13 @@
       </c>
       <c r="S41" s="2"/>
       <c r="T41">
-        <v>5390.25</v>
+        <v>473.47</v>
       </c>
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K42" s="2"/>
       <c r="N42" t="s">
@@ -1080,21 +1080,21 @@
       </c>
       <c r="S42" s="2"/>
       <c r="T42">
-        <v>618.09</v>
+        <v>5000</v>
       </c>
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K43" s="2"/>
       <c r="N43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43">
-        <v>269.67750000000001</v>
+        <v>5390.25</v>
       </c>
       <c r="AB43" s="2"/>
     </row>
@@ -1108,21 +1108,21 @@
       </c>
       <c r="S44" s="2"/>
       <c r="T44">
-        <v>512.35</v>
+        <v>618.09</v>
       </c>
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K45" s="2"/>
       <c r="N45" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45">
-        <v>2060.9513999999999</v>
+        <v>269.67750000000001</v>
       </c>
       <c r="AB45" s="2"/>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="S46" s="2"/>
       <c r="T46">
-        <v>8164.6464999999998</v>
+        <v>512.35</v>
       </c>
       <c r="AB46" s="2"/>
     </row>
@@ -1146,25 +1146,25 @@
       </c>
       <c r="K47" s="2"/>
       <c r="N47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47">
-        <v>541.71</v>
+        <v>2060.9513999999999</v>
       </c>
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K48" s="2"/>
       <c r="N48" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48">
-        <v>272.35500000000002</v>
+        <v>8164.6464999999998</v>
       </c>
       <c r="AB48" s="2"/>
     </row>
@@ -1174,31 +1174,31 @@
       </c>
       <c r="K49" s="2"/>
       <c r="N49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49">
-        <v>532.89419999999996</v>
+        <v>541.71</v>
       </c>
       <c r="AB49" s="2"/>
     </row>
     <row r="50" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K50" s="2"/>
       <c r="N50" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50">
-        <v>2000.5583999999999</v>
+        <v>272.35500000000002</v>
       </c>
       <c r="AB50" s="2"/>
     </row>
     <row r="51" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K51" s="2"/>
       <c r="N51" t="s">
@@ -1206,13 +1206,13 @@
       </c>
       <c r="S51" s="2"/>
       <c r="T51">
-        <v>500</v>
+        <v>532.89419999999996</v>
       </c>
       <c r="AB51" s="2"/>
     </row>
     <row r="52" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K52" s="2"/>
       <c r="N52" t="s">
@@ -1220,13 +1220,13 @@
       </c>
       <c r="S52" s="2"/>
       <c r="T52">
-        <v>250</v>
+        <v>2000.5583999999999</v>
       </c>
       <c r="AB52" s="2"/>
     </row>
     <row r="53" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K53" s="2"/>
       <c r="N53" t="s">
@@ -1234,13 +1234,13 @@
       </c>
       <c r="S53" s="2"/>
       <c r="T53">
-        <v>1000.1964</v>
+        <v>500</v>
       </c>
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K54" s="2"/>
       <c r="N54" t="s">
@@ -1254,7 +1254,7 @@
     </row>
     <row r="55" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K55" s="2"/>
       <c r="N55" t="s">
@@ -1262,13 +1262,13 @@
       </c>
       <c r="S55" s="2"/>
       <c r="T55">
-        <v>2000</v>
+        <v>1000.1964</v>
       </c>
       <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K56" s="2"/>
       <c r="N56" t="s">
@@ -1276,13 +1276,13 @@
       </c>
       <c r="S56" s="2"/>
       <c r="T56">
-        <v>1410.91</v>
+        <v>250</v>
       </c>
       <c r="AB56" s="2"/>
     </row>
     <row r="57" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K57" s="2"/>
       <c r="N57" t="s">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="S57" s="2"/>
       <c r="T57">
-        <v>843.71820000000002</v>
+        <v>2000</v>
       </c>
       <c r="AB57" s="2"/>
     </row>
@@ -1304,51 +1304,79 @@
       </c>
       <c r="S58" s="2"/>
       <c r="T58">
-        <v>1146.5808</v>
+        <v>1410.91</v>
       </c>
       <c r="AB58" s="2"/>
     </row>
     <row r="59" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59" s="2"/>
       <c r="N59" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59">
-        <v>270.23</v>
+        <v>843.71820000000002</v>
       </c>
       <c r="AB59" s="2"/>
     </row>
     <row r="60" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K60" s="2"/>
       <c r="N60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60">
-        <v>312.98829999999998</v>
+        <v>1146.5808</v>
       </c>
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K61" s="2"/>
       <c r="N61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61">
+        <v>270.23</v>
+      </c>
+      <c r="AB61" s="2"/>
+    </row>
+    <row r="62" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="K62" s="2"/>
+      <c r="N62" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="2"/>
+      <c r="T62">
+        <v>312.98829999999998</v>
+      </c>
+      <c r="AB62" s="2"/>
+    </row>
+    <row r="63" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="K63" s="2"/>
+      <c r="N63" t="s">
+        <v>7</v>
+      </c>
+      <c r="S63" s="2"/>
+      <c r="T63">
         <v>538.73540000000003</v>
       </c>
-      <c r="AB61" s="2"/>
+      <c r="AB63" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAC6341-3685-465E-A4EB-0391103D15A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0FA33B8-A799-48E3-AC35-AD8C38BD5DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="8">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Crypto</t>
   </si>
   <si>
-    <t>Wiretransfer</t>
+    <t>Withdrawal</t>
   </si>
   <si>
-    <t>Withdrawal</t>
+    <t>Wiretransfer</t>
   </si>
   <si>
     <t>Credit Card</t>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB63"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,11 +516,11 @@
       </c>
       <c r="K2" s="2"/>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2">
-        <v>338.95639999999997</v>
+        <v>808.05</v>
       </c>
       <c r="AB2" s="2"/>
     </row>
@@ -530,11 +530,11 @@
       </c>
       <c r="K3" s="2"/>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3">
-        <v>12606.725899999999</v>
+        <v>2759.55</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="S4" s="2"/>
       <c r="T4">
-        <v>456.68</v>
+        <v>272.68</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
@@ -562,13 +562,13 @@
       </c>
       <c r="S5" s="2"/>
       <c r="T5">
-        <v>1054.9099000000001</v>
+        <v>2863.3768</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2"/>
       <c r="N6" t="s">
@@ -576,7 +576,7 @@
       </c>
       <c r="S6" s="2"/>
       <c r="T6">
-        <v>566.72820000000002</v>
+        <v>1261.79</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7">
-        <v>8511.7579999999998</v>
+        <v>338.95639999999997</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
@@ -600,11 +600,11 @@
       </c>
       <c r="K8" s="2"/>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8">
-        <v>9067.7985000000008</v>
+        <v>12606.725899999999</v>
       </c>
       <c r="AB8" s="2"/>
     </row>
@@ -618,13 +618,13 @@
       </c>
       <c r="S9" s="2"/>
       <c r="T9">
-        <v>228.24</v>
+        <v>456.68</v>
       </c>
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K10" s="2"/>
       <c r="N10" t="s">
@@ -632,21 +632,21 @@
       </c>
       <c r="S10" s="2"/>
       <c r="T10">
-        <v>269.65499999999997</v>
+        <v>1054.9099000000001</v>
       </c>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2"/>
       <c r="N11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11">
-        <v>269.64249999999998</v>
+        <v>566.72820000000002</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
@@ -656,11 +656,11 @@
       </c>
       <c r="K12" s="2"/>
       <c r="N12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12">
-        <v>12625.8388</v>
+        <v>8511.7579999999998</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="S13" s="2"/>
       <c r="T13">
-        <v>1264.4450999999999</v>
+        <v>9067.7985000000008</v>
       </c>
       <c r="AB13" s="2"/>
     </row>
@@ -688,35 +688,35 @@
       </c>
       <c r="S14" s="2"/>
       <c r="T14">
-        <v>506.15089999999998</v>
+        <v>228.24</v>
       </c>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2"/>
       <c r="N15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15">
-        <v>13994.11</v>
+        <v>269.65499999999997</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="2"/>
       <c r="N16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16">
-        <v>2525.3888999999999</v>
+        <v>269.64249999999998</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
@@ -726,11 +726,11 @@
       </c>
       <c r="K17" s="2"/>
       <c r="N17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17">
-        <v>2325.7051000000001</v>
+        <v>12625.8388</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
@@ -744,21 +744,21 @@
       </c>
       <c r="S18" s="2"/>
       <c r="T18">
-        <v>1163.6212</v>
+        <v>1264.4450999999999</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19">
-        <v>6319.8140000000003</v>
+        <v>506.15089999999998</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
@@ -768,11 +768,11 @@
       </c>
       <c r="K20" s="2"/>
       <c r="N20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20">
-        <v>281.66000000000003</v>
+        <v>13994.11</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
@@ -782,11 +782,11 @@
       </c>
       <c r="K21" s="2"/>
       <c r="N21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21">
-        <v>1168.5009</v>
+        <v>2525.3888999999999</v>
       </c>
       <c r="AB21" s="2"/>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="S22" s="2"/>
       <c r="T22">
-        <v>1479.3526999999999</v>
+        <v>2325.7051000000001</v>
       </c>
       <c r="AB22" s="2"/>
     </row>
@@ -814,21 +814,21 @@
       </c>
       <c r="S23" s="2"/>
       <c r="T23">
-        <v>4192.6170000000002</v>
+        <v>1163.6212</v>
       </c>
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2"/>
       <c r="N24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24">
-        <v>625.74890000000005</v>
+        <v>6319.8140000000003</v>
       </c>
       <c r="AB24" s="2"/>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="S25" s="2"/>
       <c r="T25">
-        <v>2093.9180000000001</v>
+        <v>281.66000000000003</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26">
-        <v>711.81669999999997</v>
+        <v>1168.5009</v>
       </c>
       <c r="AB26" s="2"/>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="S27" s="2"/>
       <c r="T27">
-        <v>2307.1005</v>
+        <v>1479.3526999999999</v>
       </c>
       <c r="AB27" s="2"/>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="S28" s="2"/>
       <c r="T28">
-        <v>1150.3203000000001</v>
+        <v>4192.6170000000002</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="S29" s="2"/>
       <c r="T29">
-        <v>1157.0929000000001</v>
+        <v>625.74890000000005</v>
       </c>
       <c r="AB29" s="2"/>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="S30" s="2"/>
       <c r="T30">
-        <v>2314.66</v>
+        <v>2093.9180000000001</v>
       </c>
       <c r="AB30" s="2"/>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="S31" s="2"/>
       <c r="T31">
-        <v>4988.3356000000003</v>
+        <v>711.81669999999997</v>
       </c>
       <c r="AB31" s="2"/>
     </row>
@@ -936,11 +936,11 @@
       </c>
       <c r="K32" s="2"/>
       <c r="N32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32">
-        <v>6266.1853000000001</v>
+        <v>2307.1005</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
@@ -954,21 +954,21 @@
       </c>
       <c r="S33" s="2"/>
       <c r="T33">
-        <v>1163.8599999999999</v>
+        <v>1150.3203000000001</v>
       </c>
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K34" s="2"/>
       <c r="N34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34">
-        <v>245.7345</v>
+        <v>1157.0929000000001</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
@@ -982,13 +982,13 @@
       </c>
       <c r="S35" s="2"/>
       <c r="T35">
-        <v>977.07</v>
+        <v>2314.66</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K36" s="2"/>
       <c r="N36" t="s">
@@ -996,27 +996,27 @@
       </c>
       <c r="S36" s="2"/>
       <c r="T36">
-        <v>537.54</v>
+        <v>4988.3356000000003</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K37" s="2"/>
       <c r="N37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37">
-        <v>537.70500000000004</v>
+        <v>6266.1853000000001</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K38" s="2"/>
       <c r="N38" t="s">
@@ -1024,41 +1024,41 @@
       </c>
       <c r="S38" s="2"/>
       <c r="T38">
-        <v>21501.599999999999</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39" s="2"/>
       <c r="N39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39">
-        <v>521.05949999999996</v>
+        <v>245.7345</v>
       </c>
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K40" s="2"/>
       <c r="N40" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40">
-        <v>254.648</v>
+        <v>977.07</v>
       </c>
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K41" s="2"/>
       <c r="N41" t="s">
@@ -1066,13 +1066,13 @@
       </c>
       <c r="S41" s="2"/>
       <c r="T41">
-        <v>473.47</v>
+        <v>537.54</v>
       </c>
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K42" s="2"/>
       <c r="N42" t="s">
@@ -1080,13 +1080,13 @@
       </c>
       <c r="S42" s="2"/>
       <c r="T42">
-        <v>5000</v>
+        <v>537.70500000000004</v>
       </c>
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K43" s="2"/>
       <c r="N43" t="s">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="S43" s="2"/>
       <c r="T43">
-        <v>5390.25</v>
+        <v>21501.599999999999</v>
       </c>
       <c r="AB43" s="2"/>
     </row>
@@ -1108,13 +1108,13 @@
       </c>
       <c r="S44" s="2"/>
       <c r="T44">
-        <v>618.09</v>
+        <v>521.05949999999996</v>
       </c>
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K45" s="2"/>
       <c r="N45" t="s">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="S45" s="2"/>
       <c r="T45">
-        <v>269.67750000000001</v>
+        <v>254.648</v>
       </c>
       <c r="AB45" s="2"/>
     </row>
@@ -1136,13 +1136,13 @@
       </c>
       <c r="S46" s="2"/>
       <c r="T46">
-        <v>512.35</v>
+        <v>473.47</v>
       </c>
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K47" s="2"/>
       <c r="N47" t="s">
@@ -1150,13 +1150,13 @@
       </c>
       <c r="S47" s="2"/>
       <c r="T47">
-        <v>2060.9513999999999</v>
+        <v>5000</v>
       </c>
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K48" s="2"/>
       <c r="N48" t="s">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="S48" s="2"/>
       <c r="T48">
-        <v>8164.6464999999998</v>
+        <v>5390.25</v>
       </c>
       <c r="AB48" s="2"/>
     </row>
@@ -1174,17 +1174,17 @@
       </c>
       <c r="K49" s="2"/>
       <c r="N49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49">
-        <v>541.71</v>
+        <v>618.09</v>
       </c>
       <c r="AB49" s="2"/>
     </row>
     <row r="50" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K50" s="2"/>
       <c r="N50" t="s">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="S50" s="2"/>
       <c r="T50">
-        <v>272.35500000000002</v>
+        <v>269.67750000000001</v>
       </c>
       <c r="AB50" s="2"/>
     </row>
@@ -1206,13 +1206,13 @@
       </c>
       <c r="S51" s="2"/>
       <c r="T51">
-        <v>532.89419999999996</v>
+        <v>512.35</v>
       </c>
       <c r="AB51" s="2"/>
     </row>
     <row r="52" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K52" s="2"/>
       <c r="N52" t="s">
@@ -1220,13 +1220,13 @@
       </c>
       <c r="S52" s="2"/>
       <c r="T52">
-        <v>2000.5583999999999</v>
+        <v>2060.9513999999999</v>
       </c>
       <c r="AB52" s="2"/>
     </row>
     <row r="53" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K53" s="2"/>
       <c r="N53" t="s">
@@ -1234,41 +1234,41 @@
       </c>
       <c r="S53" s="2"/>
       <c r="T53">
-        <v>500</v>
+        <v>8164.6464999999998</v>
       </c>
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K54" s="2"/>
       <c r="N54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54">
-        <v>250</v>
+        <v>541.71</v>
       </c>
       <c r="AB54" s="2"/>
     </row>
     <row r="55" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K55" s="2"/>
       <c r="N55" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55">
-        <v>1000.1964</v>
+        <v>272.35500000000002</v>
       </c>
       <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K56" s="2"/>
       <c r="N56" t="s">
@@ -1276,13 +1276,13 @@
       </c>
       <c r="S56" s="2"/>
       <c r="T56">
-        <v>250</v>
+        <v>532.89419999999996</v>
       </c>
       <c r="AB56" s="2"/>
     </row>
     <row r="57" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K57" s="2"/>
       <c r="N57" t="s">
@@ -1290,13 +1290,13 @@
       </c>
       <c r="S57" s="2"/>
       <c r="T57">
-        <v>2000</v>
+        <v>2000.5583999999999</v>
       </c>
       <c r="AB57" s="2"/>
     </row>
     <row r="58" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K58" s="2"/>
       <c r="N58" t="s">
@@ -1304,13 +1304,13 @@
       </c>
       <c r="S58" s="2"/>
       <c r="T58">
-        <v>1410.91</v>
+        <v>500</v>
       </c>
       <c r="AB58" s="2"/>
     </row>
     <row r="59" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59" s="2"/>
       <c r="N59" t="s">
@@ -1318,13 +1318,13 @@
       </c>
       <c r="S59" s="2"/>
       <c r="T59">
-        <v>843.71820000000002</v>
+        <v>250</v>
       </c>
       <c r="AB59" s="2"/>
     </row>
     <row r="60" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K60" s="2"/>
       <c r="N60" t="s">
@@ -1332,35 +1332,35 @@
       </c>
       <c r="S60" s="2"/>
       <c r="T60">
-        <v>1146.5808</v>
+        <v>1000.1964</v>
       </c>
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K61" s="2"/>
       <c r="N61" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61">
-        <v>270.23</v>
+        <v>250</v>
       </c>
       <c r="AB61" s="2"/>
     </row>
     <row r="62" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K62" s="2"/>
       <c r="N62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62">
-        <v>312.98829999999998</v>
+        <v>2000</v>
       </c>
       <c r="AB62" s="2"/>
     </row>
@@ -1370,13 +1370,83 @@
       </c>
       <c r="K63" s="2"/>
       <c r="N63" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63">
+        <v>1410.91</v>
+      </c>
+      <c r="AB63" s="2"/>
+    </row>
+    <row r="64" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="K64" s="2"/>
+      <c r="N64" t="s">
+        <v>4</v>
+      </c>
+      <c r="S64" s="2"/>
+      <c r="T64">
+        <v>843.71820000000002</v>
+      </c>
+      <c r="AB64" s="2"/>
+    </row>
+    <row r="65" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+      <c r="K65" s="2"/>
+      <c r="N65" t="s">
+        <v>4</v>
+      </c>
+      <c r="S65" s="2"/>
+      <c r="T65">
+        <v>1146.5808</v>
+      </c>
+      <c r="AB65" s="2"/>
+    </row>
+    <row r="66" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="2"/>
+      <c r="N66" t="s">
+        <v>7</v>
+      </c>
+      <c r="S66" s="2"/>
+      <c r="T66">
+        <v>270.23</v>
+      </c>
+      <c r="AB66" s="2"/>
+    </row>
+    <row r="67" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="K67" s="2"/>
+      <c r="N67" t="s">
+        <v>6</v>
+      </c>
+      <c r="S67" s="2"/>
+      <c r="T67">
+        <v>312.98829999999998</v>
+      </c>
+      <c r="AB67" s="2"/>
+    </row>
+    <row r="68" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>3</v>
+      </c>
+      <c r="K68" s="2"/>
+      <c r="N68" t="s">
+        <v>7</v>
+      </c>
+      <c r="S68" s="2"/>
+      <c r="T68">
         <v>538.73540000000003</v>
       </c>
-      <c r="AB63" s="2"/>
+      <c r="AB68" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0FA33B8-A799-48E3-AC35-AD8C38BD5DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86186F5B-B927-4801-B06E-F5DFDF6C8F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="8">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -34,16 +34,16 @@
     <t>Deposit</t>
   </si>
   <si>
-    <t>Crypto</t>
+    <t>Wiretransfer</t>
   </si>
   <si>
     <t>Withdrawal</t>
   </si>
   <si>
-    <t>Wiretransfer</t>
+    <t>Credit Card</t>
   </si>
   <si>
-    <t>Credit Card</t>
+    <t>Crypto</t>
   </si>
 </sst>
 </file>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+      <selection activeCell="U1" sqref="U1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="N2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2">
@@ -534,21 +534,21 @@
       </c>
       <c r="S3" s="2"/>
       <c r="T3">
-        <v>2759.55</v>
+        <v>7576.5357999999997</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2"/>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4">
-        <v>272.68</v>
+        <v>269.6825</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
@@ -558,25 +558,25 @@
       </c>
       <c r="K5" s="2"/>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5">
-        <v>2863.3768</v>
+        <v>2759.55</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2"/>
       <c r="N6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6">
-        <v>1261.79</v>
+        <v>272.68</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
@@ -586,25 +586,25 @@
       </c>
       <c r="K7" s="2"/>
       <c r="N7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7">
-        <v>338.95639999999997</v>
+        <v>2863.3768</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2"/>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8">
-        <v>12606.725899999999</v>
+        <v>1261.79</v>
       </c>
       <c r="AB8" s="2"/>
     </row>
@@ -614,11 +614,11 @@
       </c>
       <c r="K9" s="2"/>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9">
-        <v>456.68</v>
+        <v>338.95639999999997</v>
       </c>
       <c r="AB9" s="2"/>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="S10" s="2"/>
       <c r="T10">
-        <v>1054.9099000000001</v>
+        <v>12606.725899999999</v>
       </c>
       <c r="AB10" s="2"/>
     </row>
@@ -642,11 +642,11 @@
       </c>
       <c r="K11" s="2"/>
       <c r="N11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11">
-        <v>566.72820000000002</v>
+        <v>456.68</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
@@ -656,11 +656,11 @@
       </c>
       <c r="K12" s="2"/>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12">
-        <v>8511.7579999999998</v>
+        <v>1054.9099000000001</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
@@ -670,11 +670,11 @@
       </c>
       <c r="K13" s="2"/>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13">
-        <v>9067.7985000000008</v>
+        <v>566.72820000000002</v>
       </c>
       <c r="AB13" s="2"/>
     </row>
@@ -684,31 +684,31 @@
       </c>
       <c r="K14" s="2"/>
       <c r="N14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14">
-        <v>228.24</v>
+        <v>8511.7579999999998</v>
       </c>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" s="2"/>
       <c r="N15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15">
-        <v>269.65499999999997</v>
+        <v>9067.7985000000008</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2"/>
       <c r="N16" t="s">
@@ -716,35 +716,35 @@
       </c>
       <c r="S16" s="2"/>
       <c r="T16">
-        <v>269.64249999999998</v>
+        <v>228.24</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17">
-        <v>12625.8388</v>
+        <v>269.65499999999997</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18">
-        <v>1264.4450999999999</v>
+        <v>269.64249999999998</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="S19" s="2"/>
       <c r="T19">
-        <v>506.15089999999998</v>
+        <v>12625.8388</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
@@ -768,11 +768,11 @@
       </c>
       <c r="K20" s="2"/>
       <c r="N20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20">
-        <v>13994.11</v>
+        <v>1264.4450999999999</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
@@ -782,11 +782,11 @@
       </c>
       <c r="K21" s="2"/>
       <c r="N21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21">
-        <v>2525.3888999999999</v>
+        <v>506.15089999999998</v>
       </c>
       <c r="AB21" s="2"/>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="S22" s="2"/>
       <c r="T22">
-        <v>2325.7051000000001</v>
+        <v>13994.11</v>
       </c>
       <c r="AB22" s="2"/>
     </row>
@@ -814,21 +814,21 @@
       </c>
       <c r="S23" s="2"/>
       <c r="T23">
-        <v>1163.6212</v>
+        <v>2525.3888999999999</v>
       </c>
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" s="2"/>
       <c r="N24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24">
-        <v>6319.8140000000003</v>
+        <v>2325.7051000000001</v>
       </c>
       <c r="AB24" s="2"/>
     </row>
@@ -838,17 +838,17 @@
       </c>
       <c r="K25" s="2"/>
       <c r="N25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25">
-        <v>281.66000000000003</v>
+        <v>1163.6212</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K26" s="2"/>
       <c r="N26" t="s">
@@ -856,7 +856,7 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26">
-        <v>1168.5009</v>
+        <v>6319.8140000000003</v>
       </c>
       <c r="AB26" s="2"/>
     </row>
@@ -866,11 +866,11 @@
       </c>
       <c r="K27" s="2"/>
       <c r="N27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27">
-        <v>1479.3526999999999</v>
+        <v>281.66000000000003</v>
       </c>
       <c r="AB27" s="2"/>
     </row>
@@ -880,11 +880,11 @@
       </c>
       <c r="K28" s="2"/>
       <c r="N28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28">
-        <v>4192.6170000000002</v>
+        <v>1168.5009</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
@@ -894,11 +894,11 @@
       </c>
       <c r="K29" s="2"/>
       <c r="N29" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29">
-        <v>625.74890000000005</v>
+        <v>1479.3526999999999</v>
       </c>
       <c r="AB29" s="2"/>
     </row>
@@ -908,11 +908,11 @@
       </c>
       <c r="K30" s="2"/>
       <c r="N30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30">
-        <v>2093.9180000000001</v>
+        <v>4192.6170000000002</v>
       </c>
       <c r="AB30" s="2"/>
     </row>
@@ -922,11 +922,11 @@
       </c>
       <c r="K31" s="2"/>
       <c r="N31" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31">
-        <v>711.81669999999997</v>
+        <v>625.74890000000005</v>
       </c>
       <c r="AB31" s="2"/>
     </row>
@@ -936,11 +936,11 @@
       </c>
       <c r="K32" s="2"/>
       <c r="N32" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32">
-        <v>2307.1005</v>
+        <v>2093.9180000000001</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
@@ -950,11 +950,11 @@
       </c>
       <c r="K33" s="2"/>
       <c r="N33" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33">
-        <v>1150.3203000000001</v>
+        <v>711.81669999999997</v>
       </c>
       <c r="AB33" s="2"/>
     </row>
@@ -964,11 +964,11 @@
       </c>
       <c r="K34" s="2"/>
       <c r="N34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34">
-        <v>1157.0929000000001</v>
+        <v>2307.1005</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
@@ -978,11 +978,11 @@
       </c>
       <c r="K35" s="2"/>
       <c r="N35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35">
-        <v>2314.66</v>
+        <v>1150.3203000000001</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
@@ -992,11 +992,11 @@
       </c>
       <c r="K36" s="2"/>
       <c r="N36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36">
-        <v>4988.3356000000003</v>
+        <v>1157.0929000000001</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
@@ -1006,11 +1006,11 @@
       </c>
       <c r="K37" s="2"/>
       <c r="N37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37">
-        <v>6266.1853000000001</v>
+        <v>2314.66</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
@@ -1020,25 +1020,25 @@
       </c>
       <c r="K38" s="2"/>
       <c r="N38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38">
-        <v>1163.8599999999999</v>
+        <v>4988.3356000000003</v>
       </c>
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K39" s="2"/>
       <c r="N39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39">
-        <v>245.7345</v>
+        <v>6266.1853000000001</v>
       </c>
       <c r="AB39" s="2"/>
     </row>
@@ -1048,11 +1048,11 @@
       </c>
       <c r="K40" s="2"/>
       <c r="N40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40">
-        <v>977.07</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="AB40" s="2"/>
     </row>
@@ -1066,21 +1066,21 @@
       </c>
       <c r="S41" s="2"/>
       <c r="T41">
-        <v>537.54</v>
+        <v>245.7345</v>
       </c>
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" s="2"/>
       <c r="N42" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42">
-        <v>537.70500000000004</v>
+        <v>977.07</v>
       </c>
       <c r="AB42" s="2"/>
     </row>
@@ -1090,25 +1090,25 @@
       </c>
       <c r="K43" s="2"/>
       <c r="N43" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43">
-        <v>21501.599999999999</v>
+        <v>537.54</v>
       </c>
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K44" s="2"/>
       <c r="N44" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44">
-        <v>521.05949999999996</v>
+        <v>537.70500000000004</v>
       </c>
       <c r="AB44" s="2"/>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="S45" s="2"/>
       <c r="T45">
-        <v>254.648</v>
+        <v>21501.599999999999</v>
       </c>
       <c r="AB45" s="2"/>
     </row>
@@ -1132,11 +1132,11 @@
       </c>
       <c r="K46" s="2"/>
       <c r="N46" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46">
-        <v>473.47</v>
+        <v>521.05949999999996</v>
       </c>
       <c r="AB46" s="2"/>
     </row>
@@ -1146,39 +1146,39 @@
       </c>
       <c r="K47" s="2"/>
       <c r="N47" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47">
-        <v>5000</v>
+        <v>254.648</v>
       </c>
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K48" s="2"/>
       <c r="N48" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48">
-        <v>5390.25</v>
+        <v>473.47</v>
       </c>
       <c r="AB48" s="2"/>
     </row>
     <row r="49" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K49" s="2"/>
       <c r="N49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49">
-        <v>618.09</v>
+        <v>5000</v>
       </c>
       <c r="AB49" s="2"/>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="S50" s="2"/>
       <c r="T50">
-        <v>269.67750000000001</v>
+        <v>5390.25</v>
       </c>
       <c r="AB50" s="2"/>
     </row>
@@ -1202,25 +1202,25 @@
       </c>
       <c r="K51" s="2"/>
       <c r="N51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51">
-        <v>512.35</v>
+        <v>618.09</v>
       </c>
       <c r="AB51" s="2"/>
     </row>
     <row r="52" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K52" s="2"/>
       <c r="N52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52">
-        <v>2060.9513999999999</v>
+        <v>269.67750000000001</v>
       </c>
       <c r="AB52" s="2"/>
     </row>
@@ -1230,11 +1230,11 @@
       </c>
       <c r="K53" s="2"/>
       <c r="N53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53">
-        <v>8164.6464999999998</v>
+        <v>512.35</v>
       </c>
       <c r="AB53" s="2"/>
     </row>
@@ -1244,17 +1244,17 @@
       </c>
       <c r="K54" s="2"/>
       <c r="N54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54">
-        <v>541.71</v>
+        <v>2060.9513999999999</v>
       </c>
       <c r="AB54" s="2"/>
     </row>
     <row r="55" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K55" s="2"/>
       <c r="N55" t="s">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="S55" s="2"/>
       <c r="T55">
-        <v>272.35500000000002</v>
+        <v>8164.6464999999998</v>
       </c>
       <c r="AB55" s="2"/>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="S56" s="2"/>
       <c r="T56">
-        <v>532.89419999999996</v>
+        <v>541.71</v>
       </c>
       <c r="AB56" s="2"/>
     </row>
@@ -1286,25 +1286,25 @@
       </c>
       <c r="K57" s="2"/>
       <c r="N57" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57">
-        <v>2000.5583999999999</v>
+        <v>272.35500000000002</v>
       </c>
       <c r="AB57" s="2"/>
     </row>
     <row r="58" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K58" s="2"/>
       <c r="N58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58">
-        <v>500</v>
+        <v>532.89419999999996</v>
       </c>
       <c r="AB58" s="2"/>
     </row>
@@ -1314,11 +1314,11 @@
       </c>
       <c r="K59" s="2"/>
       <c r="N59" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59">
-        <v>250</v>
+        <v>2000.5583999999999</v>
       </c>
       <c r="AB59" s="2"/>
     </row>
@@ -1328,11 +1328,11 @@
       </c>
       <c r="K60" s="2"/>
       <c r="N60" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60">
-        <v>1000.1964</v>
+        <v>500</v>
       </c>
       <c r="AB60" s="2"/>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="N61" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61">
@@ -1356,39 +1356,39 @@
       </c>
       <c r="K62" s="2"/>
       <c r="N62" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62">
-        <v>2000</v>
+        <v>1000.1964</v>
       </c>
       <c r="AB62" s="2"/>
     </row>
     <row r="63" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63" s="2"/>
       <c r="N63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63">
-        <v>1410.91</v>
+        <v>250</v>
       </c>
       <c r="AB63" s="2"/>
     </row>
     <row r="64" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K64" s="2"/>
       <c r="N64" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64">
-        <v>843.71820000000002</v>
+        <v>2000</v>
       </c>
       <c r="AB64" s="2"/>
     </row>
@@ -1398,17 +1398,17 @@
       </c>
       <c r="K65" s="2"/>
       <c r="N65" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65">
-        <v>1146.5808</v>
+        <v>1410.91</v>
       </c>
       <c r="AB65" s="2"/>
     </row>
     <row r="66" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K66" s="2"/>
       <c r="N66" t="s">
@@ -1416,37 +1416,65 @@
       </c>
       <c r="S66" s="2"/>
       <c r="T66">
-        <v>270.23</v>
+        <v>843.71820000000002</v>
       </c>
       <c r="AB66" s="2"/>
     </row>
     <row r="67" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K67" s="2"/>
       <c r="N67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67">
-        <v>312.98829999999998</v>
+        <v>1146.5808</v>
       </c>
       <c r="AB67" s="2"/>
     </row>
     <row r="68" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K68" s="2"/>
       <c r="N68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68">
+        <v>270.23</v>
+      </c>
+      <c r="AB68" s="2"/>
+    </row>
+    <row r="69" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="K69" s="2"/>
+      <c r="N69" t="s">
+        <v>4</v>
+      </c>
+      <c r="S69" s="2"/>
+      <c r="T69">
+        <v>312.98829999999998</v>
+      </c>
+      <c r="AB69" s="2"/>
+    </row>
+    <row r="70" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="2"/>
+      <c r="N70" t="s">
+        <v>6</v>
+      </c>
+      <c r="S70" s="2"/>
+      <c r="T70">
         <v>538.73540000000003</v>
       </c>
-      <c r="AB68" s="2"/>
+      <c r="AB70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86186F5B-B927-4801-B06E-F5DFDF6C8F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE7CDFDF-B4F3-4F45-87AB-FAE124226B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="8">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -31,19 +31,19 @@
     <t>USD Amount</t>
   </si>
   <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Crypto</t>
+  </si>
+  <si>
     <t>Deposit</t>
   </si>
   <si>
     <t>Wiretransfer</t>
   </si>
   <si>
-    <t>Withdrawal</t>
-  </si>
-  <si>
     <t>Credit Card</t>
-  </si>
-  <si>
-    <t>Crypto</t>
   </si>
 </sst>
 </file>
@@ -62,7 +62,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -437,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AB87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AB1048576"/>
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +461,7 @@
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="47.28515625" customWidth="1"/>
+    <col min="18" max="18" width="47.42578125" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" customWidth="1"/>
     <col min="21" max="21" width="7.28515625" customWidth="1"/>
@@ -516,17 +515,17 @@
       </c>
       <c r="K2" s="2"/>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2">
-        <v>808.05</v>
+        <v>750</v>
       </c>
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2"/>
       <c r="N3" t="s">
@@ -534,7 +533,7 @@
       </c>
       <c r="S3" s="2"/>
       <c r="T3">
-        <v>7576.5357999999997</v>
+        <v>5192.0780999999997</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
@@ -544,53 +543,53 @@
       </c>
       <c r="K4" s="2"/>
       <c r="N4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4">
-        <v>269.6825</v>
+        <v>6323.9682000000003</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2"/>
       <c r="N5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5">
-        <v>2759.55</v>
+        <v>233.00729999999999</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2"/>
       <c r="N6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6">
-        <v>272.68</v>
+        <v>8516.1147000000001</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2"/>
       <c r="N7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7">
-        <v>2863.3768</v>
+        <v>187.25640000000001</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
@@ -600,25 +599,25 @@
       </c>
       <c r="K8" s="2"/>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8">
-        <v>1261.79</v>
+        <v>3792.7755000000002</v>
       </c>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2"/>
       <c r="N9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9">
-        <v>338.95639999999997</v>
+        <v>3145.1669999999999</v>
       </c>
       <c r="AB9" s="2"/>
     </row>
@@ -628,25 +627,25 @@
       </c>
       <c r="K10" s="2"/>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10">
-        <v>12606.725899999999</v>
+        <v>269.33499999999998</v>
       </c>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" s="2"/>
       <c r="N11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11">
-        <v>456.68</v>
+        <v>2092.8744000000002</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
@@ -656,39 +655,39 @@
       </c>
       <c r="K12" s="2"/>
       <c r="N12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12">
-        <v>1054.9099000000001</v>
+        <v>107.779</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2"/>
       <c r="N13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13">
-        <v>566.72820000000002</v>
+        <v>12631.7</v>
       </c>
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2"/>
       <c r="N14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14">
-        <v>8511.7579999999998</v>
+        <v>2526.2386999999999</v>
       </c>
       <c r="AB14" s="2"/>
     </row>
@@ -702,21 +701,21 @@
       </c>
       <c r="S15" s="2"/>
       <c r="T15">
-        <v>9067.7985000000008</v>
+        <v>250</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16" s="2"/>
       <c r="N16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16">
-        <v>228.24</v>
+        <v>219.0179</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
@@ -726,11 +725,11 @@
       </c>
       <c r="K17" s="2"/>
       <c r="N17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17">
-        <v>269.65499999999997</v>
+        <v>326.95830000000001</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
@@ -740,17 +739,17 @@
       </c>
       <c r="K18" s="2"/>
       <c r="N18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18">
-        <v>269.64249999999998</v>
+        <v>283.64400000000001</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" t="s">
@@ -758,21 +757,21 @@
       </c>
       <c r="S19" s="2"/>
       <c r="T19">
-        <v>12625.8388</v>
+        <v>1216.3599999999999</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20">
-        <v>1264.4450999999999</v>
+        <v>7576.5357999999997</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
@@ -786,13 +785,13 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21">
-        <v>506.15089999999998</v>
+        <v>269.6825</v>
       </c>
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K22" s="2"/>
       <c r="N22" t="s">
@@ -800,13 +799,13 @@
       </c>
       <c r="S22" s="2"/>
       <c r="T22">
-        <v>13994.11</v>
+        <v>2759.55</v>
       </c>
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K23" s="2"/>
       <c r="N23" t="s">
@@ -814,21 +813,21 @@
       </c>
       <c r="S23" s="2"/>
       <c r="T23">
-        <v>2525.3888999999999</v>
+        <v>272.68</v>
       </c>
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2"/>
       <c r="N24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24">
-        <v>2325.7051000000001</v>
+        <v>2863.3768</v>
       </c>
       <c r="AB24" s="2"/>
     </row>
@@ -838,11 +837,11 @@
       </c>
       <c r="K25" s="2"/>
       <c r="N25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25">
-        <v>1163.6212</v>
+        <v>1261.79</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
@@ -856,105 +855,105 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26">
-        <v>6319.8140000000003</v>
+        <v>338.95639999999997</v>
       </c>
       <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27" s="2"/>
       <c r="N27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27">
-        <v>281.66000000000003</v>
+        <v>12606.725899999999</v>
       </c>
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K28" s="2"/>
       <c r="N28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28">
-        <v>1168.5009</v>
+        <v>456.68</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K29" s="2"/>
       <c r="N29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29">
-        <v>1479.3526999999999</v>
+        <v>1054.9099000000001</v>
       </c>
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30" s="2"/>
       <c r="N30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30">
-        <v>4192.6170000000002</v>
+        <v>566.72820000000002</v>
       </c>
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31" s="2"/>
       <c r="N31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31">
-        <v>625.74890000000005</v>
+        <v>8511.7579999999998</v>
       </c>
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K32" s="2"/>
       <c r="N32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32">
-        <v>2093.9180000000001</v>
+        <v>9067.7985000000008</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33" s="2"/>
       <c r="N33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33">
-        <v>711.81669999999997</v>
+        <v>228.24</v>
       </c>
       <c r="AB33" s="2"/>
     </row>
@@ -964,11 +963,11 @@
       </c>
       <c r="K34" s="2"/>
       <c r="N34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34">
-        <v>2307.1005</v>
+        <v>269.65499999999997</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
@@ -982,77 +981,77 @@
       </c>
       <c r="S35" s="2"/>
       <c r="T35">
-        <v>1150.3203000000001</v>
+        <v>269.64249999999998</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K36" s="2"/>
       <c r="N36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36">
-        <v>1157.0929000000001</v>
+        <v>12625.8388</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K37" s="2"/>
       <c r="N37" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37">
-        <v>2314.66</v>
+        <v>1264.4450999999999</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K38" s="2"/>
       <c r="N38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38">
-        <v>4988.3356000000003</v>
+        <v>506.15089999999998</v>
       </c>
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K39" s="2"/>
       <c r="N39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39">
-        <v>6266.1853000000001</v>
+        <v>13994.11</v>
       </c>
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K40" s="2"/>
       <c r="N40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40">
-        <v>1163.8599999999999</v>
+        <v>2525.3888999999999</v>
       </c>
       <c r="AB40" s="2"/>
     </row>
@@ -1066,35 +1065,35 @@
       </c>
       <c r="S41" s="2"/>
       <c r="T41">
-        <v>245.7345</v>
+        <v>2325.7051000000001</v>
       </c>
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K42" s="2"/>
       <c r="N42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42">
-        <v>977.07</v>
+        <v>1163.6212</v>
       </c>
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K43" s="2"/>
       <c r="N43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43">
-        <v>537.54</v>
+        <v>6319.8140000000003</v>
       </c>
       <c r="AB43" s="2"/>
     </row>
@@ -1104,11 +1103,11 @@
       </c>
       <c r="K44" s="2"/>
       <c r="N44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44">
-        <v>537.70500000000004</v>
+        <v>281.66000000000003</v>
       </c>
       <c r="AB44" s="2"/>
     </row>
@@ -1118,25 +1117,25 @@
       </c>
       <c r="K45" s="2"/>
       <c r="N45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45">
-        <v>21501.599999999999</v>
+        <v>1168.5009</v>
       </c>
       <c r="AB45" s="2"/>
     </row>
     <row r="46" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K46" s="2"/>
       <c r="N46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46">
-        <v>521.05949999999996</v>
+        <v>1479.3526999999999</v>
       </c>
       <c r="AB46" s="2"/>
     </row>
@@ -1146,25 +1145,25 @@
       </c>
       <c r="K47" s="2"/>
       <c r="N47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47">
-        <v>254.648</v>
+        <v>4192.6170000000002</v>
       </c>
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K48" s="2"/>
       <c r="N48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48">
-        <v>473.47</v>
+        <v>625.74890000000005</v>
       </c>
       <c r="AB48" s="2"/>
     </row>
@@ -1174,11 +1173,11 @@
       </c>
       <c r="K49" s="2"/>
       <c r="N49" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49">
-        <v>5000</v>
+        <v>2093.9180000000001</v>
       </c>
       <c r="AB49" s="2"/>
     </row>
@@ -1188,25 +1187,25 @@
       </c>
       <c r="K50" s="2"/>
       <c r="N50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50">
-        <v>5390.25</v>
+        <v>711.81669999999997</v>
       </c>
       <c r="AB50" s="2"/>
     </row>
     <row r="51" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K51" s="2"/>
       <c r="N51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51">
-        <v>618.09</v>
+        <v>2307.1005</v>
       </c>
       <c r="AB51" s="2"/>
     </row>
@@ -1216,67 +1215,67 @@
       </c>
       <c r="K52" s="2"/>
       <c r="N52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52">
-        <v>269.67750000000001</v>
+        <v>1150.3203000000001</v>
       </c>
       <c r="AB52" s="2"/>
     </row>
     <row r="53" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K53" s="2"/>
       <c r="N53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53">
-        <v>512.35</v>
+        <v>1157.0929000000001</v>
       </c>
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" s="2"/>
       <c r="N54" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54">
-        <v>2060.9513999999999</v>
+        <v>2314.66</v>
       </c>
       <c r="AB54" s="2"/>
     </row>
     <row r="55" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K55" s="2"/>
       <c r="N55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55">
-        <v>8164.6464999999998</v>
+        <v>4988.3356000000003</v>
       </c>
       <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K56" s="2"/>
       <c r="N56" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56">
-        <v>541.71</v>
+        <v>6266.1853000000001</v>
       </c>
       <c r="AB56" s="2"/>
     </row>
@@ -1286,11 +1285,11 @@
       </c>
       <c r="K57" s="2"/>
       <c r="N57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57">
-        <v>272.35500000000002</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="AB57" s="2"/>
     </row>
@@ -1300,11 +1299,11 @@
       </c>
       <c r="K58" s="2"/>
       <c r="N58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58">
-        <v>532.89419999999996</v>
+        <v>245.7345</v>
       </c>
       <c r="AB58" s="2"/>
     </row>
@@ -1314,53 +1313,53 @@
       </c>
       <c r="K59" s="2"/>
       <c r="N59" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59">
-        <v>2000.5583999999999</v>
+        <v>977.07</v>
       </c>
       <c r="AB59" s="2"/>
     </row>
     <row r="60" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K60" s="2"/>
       <c r="N60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60">
-        <v>500</v>
+        <v>537.54</v>
       </c>
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K61" s="2"/>
       <c r="N61" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61">
-        <v>250</v>
+        <v>537.70500000000004</v>
       </c>
       <c r="AB61" s="2"/>
     </row>
     <row r="62" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K62" s="2"/>
       <c r="N62" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62">
-        <v>1000.1964</v>
+        <v>21501.599999999999</v>
       </c>
       <c r="AB62" s="2"/>
     </row>
@@ -1370,17 +1369,17 @@
       </c>
       <c r="K63" s="2"/>
       <c r="N63" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63">
-        <v>250</v>
+        <v>521.05949999999996</v>
       </c>
       <c r="AB63" s="2"/>
     </row>
     <row r="64" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K64" s="2"/>
       <c r="N64" t="s">
@@ -1388,21 +1387,21 @@
       </c>
       <c r="S64" s="2"/>
       <c r="T64">
-        <v>2000</v>
+        <v>254.648</v>
       </c>
       <c r="AB64" s="2"/>
     </row>
     <row r="65" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K65" s="2"/>
       <c r="N65" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65">
-        <v>1410.91</v>
+        <v>473.47</v>
       </c>
       <c r="AB65" s="2"/>
     </row>
@@ -1412,11 +1411,11 @@
       </c>
       <c r="K66" s="2"/>
       <c r="N66" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66">
-        <v>843.71820000000002</v>
+        <v>5000</v>
       </c>
       <c r="AB66" s="2"/>
     </row>
@@ -1426,11 +1425,11 @@
       </c>
       <c r="K67" s="2"/>
       <c r="N67" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67">
-        <v>1146.5808</v>
+        <v>5390.25</v>
       </c>
       <c r="AB67" s="2"/>
     </row>
@@ -1440,41 +1439,279 @@
       </c>
       <c r="K68" s="2"/>
       <c r="N68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68">
-        <v>270.23</v>
+        <v>618.09</v>
       </c>
       <c r="AB68" s="2"/>
     </row>
     <row r="69" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K69" s="2"/>
       <c r="N69" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69">
-        <v>312.98829999999998</v>
+        <v>269.67750000000001</v>
       </c>
       <c r="AB69" s="2"/>
     </row>
     <row r="70" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K70" s="2"/>
       <c r="N70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70">
+        <v>512.35</v>
+      </c>
+      <c r="AB70" s="2"/>
+    </row>
+    <row r="71" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="K71" s="2"/>
+      <c r="N71" t="s">
+        <v>4</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71">
+        <v>2060.9513999999999</v>
+      </c>
+      <c r="AB71" s="2"/>
+    </row>
+    <row r="72" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="N72" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="2"/>
+      <c r="T72">
+        <v>8164.6464999999998</v>
+      </c>
+      <c r="AB72" s="2"/>
+    </row>
+    <row r="73" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="N73" t="s">
+        <v>6</v>
+      </c>
+      <c r="S73" s="2"/>
+      <c r="T73">
+        <v>541.71</v>
+      </c>
+      <c r="AB73" s="2"/>
+    </row>
+    <row r="74" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="N74" t="s">
+        <v>7</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74">
+        <v>272.35500000000002</v>
+      </c>
+      <c r="AB74" s="2"/>
+    </row>
+    <row r="75" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="N75" t="s">
+        <v>4</v>
+      </c>
+      <c r="S75" s="2"/>
+      <c r="T75">
+        <v>532.89419999999996</v>
+      </c>
+      <c r="AB75" s="2"/>
+    </row>
+    <row r="76" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="N76" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="2"/>
+      <c r="T76">
+        <v>2000.5583999999999</v>
+      </c>
+      <c r="AB76" s="2"/>
+    </row>
+    <row r="77" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="N77" t="s">
+        <v>4</v>
+      </c>
+      <c r="S77" s="2"/>
+      <c r="T77">
+        <v>500</v>
+      </c>
+      <c r="AB77" s="2"/>
+    </row>
+    <row r="78" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="N78" t="s">
+        <v>4</v>
+      </c>
+      <c r="S78" s="2"/>
+      <c r="T78">
+        <v>250</v>
+      </c>
+      <c r="AB78" s="2"/>
+    </row>
+    <row r="79" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="N79" t="s">
+        <v>4</v>
+      </c>
+      <c r="S79" s="2"/>
+      <c r="T79">
+        <v>1000.1964</v>
+      </c>
+      <c r="AB79" s="2"/>
+    </row>
+    <row r="80" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="N80" t="s">
+        <v>4</v>
+      </c>
+      <c r="S80" s="2"/>
+      <c r="T80">
+        <v>250</v>
+      </c>
+      <c r="AB80" s="2"/>
+    </row>
+    <row r="81" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="N81" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="2"/>
+      <c r="T81">
+        <v>2000</v>
+      </c>
+      <c r="AB81" s="2"/>
+    </row>
+    <row r="82" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="N82" t="s">
+        <v>4</v>
+      </c>
+      <c r="S82" s="2"/>
+      <c r="T82">
+        <v>1410.91</v>
+      </c>
+      <c r="AB82" s="2"/>
+    </row>
+    <row r="83" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="N83" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="2"/>
+      <c r="T83">
+        <v>843.71820000000002</v>
+      </c>
+      <c r="AB83" s="2"/>
+    </row>
+    <row r="84" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="N84" t="s">
+        <v>4</v>
+      </c>
+      <c r="S84" s="2"/>
+      <c r="T84">
+        <v>1146.5808</v>
+      </c>
+      <c r="AB84" s="2"/>
+    </row>
+    <row r="85" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+      <c r="K85" s="2"/>
+      <c r="N85" t="s">
+        <v>7</v>
+      </c>
+      <c r="S85" s="2"/>
+      <c r="T85">
+        <v>270.23</v>
+      </c>
+      <c r="AB85" s="2"/>
+    </row>
+    <row r="86" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+      <c r="K86" s="2"/>
+      <c r="N86" t="s">
+        <v>6</v>
+      </c>
+      <c r="S86" s="2"/>
+      <c r="T86">
+        <v>312.98829999999998</v>
+      </c>
+      <c r="AB86" s="2"/>
+    </row>
+    <row r="87" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="K87" s="2"/>
+      <c r="N87" t="s">
+        <v>7</v>
+      </c>
+      <c r="S87" s="2"/>
+      <c r="T87">
         <v>538.73540000000003</v>
       </c>
-      <c r="AB70" s="2"/>
+      <c r="AB87" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE7CDFDF-B4F3-4F45-87AB-FAE124226B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED6C411B-E24A-41E3-9B3B-57C7420AEB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="8">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -31,16 +31,16 @@
     <t>USD Amount</t>
   </si>
   <si>
-    <t>Withdrawal</t>
+    <t>Deposit</t>
   </si>
   <si>
     <t>Crypto</t>
   </si>
   <si>
-    <t>Deposit</t>
+    <t>Wiretransfer</t>
   </si>
   <si>
-    <t>Wiretransfer</t>
+    <t>Withdrawal</t>
   </si>
   <si>
     <t>Credit Card</t>
@@ -436,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB87"/>
+  <dimension ref="A1:AB101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,14 +461,14 @@
     <col min="15" max="15" width="25.28515625" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="19" customWidth="1"/>
-    <col min="18" max="18" width="47.42578125" customWidth="1"/>
+    <col min="18" max="18" width="47.7109375" customWidth="1"/>
     <col min="19" max="19" width="18.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" customWidth="1"/>
     <col min="21" max="21" width="7.28515625" customWidth="1"/>
     <col min="22" max="22" width="15.140625" customWidth="1"/>
     <col min="23" max="23" width="48" customWidth="1"/>
     <col min="24" max="24" width="8.7109375" customWidth="1"/>
-    <col min="25" max="25" width="16.5703125" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" customWidth="1"/>
     <col min="26" max="26" width="6.28515625" customWidth="1"/>
     <col min="27" max="28" width="18.7109375" customWidth="1"/>
   </cols>
@@ -519,13 +519,13 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2">
-        <v>750</v>
+        <v>987.87950000000001</v>
       </c>
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="2"/>
       <c r="N3" t="s">
@@ -533,55 +533,55 @@
       </c>
       <c r="S3" s="2"/>
       <c r="T3">
-        <v>5192.0780999999997</v>
+        <v>4160.4053999999996</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="2"/>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4">
-        <v>6323.9682000000003</v>
+        <v>535.005</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K5" s="2"/>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5">
-        <v>233.00729999999999</v>
+        <v>10713.8</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2"/>
       <c r="N6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6">
-        <v>8516.1147000000001</v>
+        <v>8239.3397000000004</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="2"/>
       <c r="N7" t="s">
@@ -589,27 +589,27 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7">
-        <v>187.25640000000001</v>
+        <v>1190.6872000000001</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2"/>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8">
-        <v>3792.7755000000002</v>
+        <v>2587.1082999999999</v>
       </c>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2"/>
       <c r="N9" t="s">
@@ -617,7 +617,7 @@
       </c>
       <c r="S9" s="2"/>
       <c r="T9">
-        <v>3145.1669999999999</v>
+        <v>2070.7564000000002</v>
       </c>
       <c r="AB9" s="2"/>
     </row>
@@ -627,17 +627,17 @@
       </c>
       <c r="K10" s="2"/>
       <c r="N10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10">
-        <v>269.33499999999998</v>
+        <v>2337.0376999999999</v>
       </c>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K11" s="2"/>
       <c r="N11" t="s">
@@ -645,7 +645,7 @@
       </c>
       <c r="S11" s="2"/>
       <c r="T11">
-        <v>2092.8744000000002</v>
+        <v>750</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
@@ -659,35 +659,35 @@
       </c>
       <c r="S12" s="2"/>
       <c r="T12">
-        <v>107.779</v>
+        <v>5192.0780999999997</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" s="2"/>
       <c r="N13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13">
-        <v>12631.7</v>
+        <v>6323.9682000000003</v>
       </c>
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2"/>
       <c r="N14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14">
-        <v>2526.2386999999999</v>
+        <v>233.00729999999999</v>
       </c>
       <c r="AB14" s="2"/>
     </row>
@@ -697,17 +697,17 @@
       </c>
       <c r="K15" s="2"/>
       <c r="N15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15">
-        <v>250</v>
+        <v>8516.1147000000001</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="2"/>
       <c r="N16" t="s">
@@ -715,27 +715,27 @@
       </c>
       <c r="S16" s="2"/>
       <c r="T16">
-        <v>219.0179</v>
+        <v>187.25640000000001</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17">
-        <v>326.95830000000001</v>
+        <v>3792.7755000000002</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" t="s">
@@ -743,91 +743,91 @@
       </c>
       <c r="S18" s="2"/>
       <c r="T18">
-        <v>283.64400000000001</v>
+        <v>3145.1669999999999</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19">
-        <v>1216.3599999999999</v>
+        <v>269.33499999999998</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20">
-        <v>7576.5357999999997</v>
+        <v>2092.8744000000002</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21">
-        <v>269.6825</v>
+        <v>107.779</v>
       </c>
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22" s="2"/>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22">
-        <v>2759.55</v>
+        <v>12631.7</v>
       </c>
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K23" s="2"/>
       <c r="N23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23">
-        <v>272.68</v>
+        <v>2526.2386999999999</v>
       </c>
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K24" s="2"/>
       <c r="N24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24">
-        <v>2863.3768</v>
+        <v>250</v>
       </c>
       <c r="AB24" s="2"/>
     </row>
@@ -841,13 +841,13 @@
       </c>
       <c r="S25" s="2"/>
       <c r="T25">
-        <v>1261.79</v>
+        <v>219.0179</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" s="2"/>
       <c r="N26" t="s">
@@ -855,27 +855,27 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26">
-        <v>338.95639999999997</v>
+        <v>326.95830000000001</v>
       </c>
       <c r="AB26" s="2"/>
     </row>
     <row r="27" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" s="2"/>
       <c r="N27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27">
-        <v>12606.725899999999</v>
+        <v>283.64400000000001</v>
       </c>
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K28" s="2"/>
       <c r="N28" t="s">
@@ -883,41 +883,41 @@
       </c>
       <c r="S28" s="2"/>
       <c r="T28">
-        <v>456.68</v>
+        <v>1216.3599999999999</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K29" s="2"/>
       <c r="N29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29">
-        <v>1054.9099000000001</v>
+        <v>7576.5357999999997</v>
       </c>
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="2"/>
       <c r="N30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30">
-        <v>566.72820000000002</v>
+        <v>269.6825</v>
       </c>
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K31" s="2"/>
       <c r="N31" t="s">
@@ -925,13 +925,13 @@
       </c>
       <c r="S31" s="2"/>
       <c r="T31">
-        <v>8511.7579999999998</v>
+        <v>2759.55</v>
       </c>
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K32" s="2"/>
       <c r="N32" t="s">
@@ -939,13 +939,13 @@
       </c>
       <c r="S32" s="2"/>
       <c r="T32">
-        <v>9067.7985000000008</v>
+        <v>272.68</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
     <row r="33" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K33" s="2"/>
       <c r="N33" t="s">
@@ -953,13 +953,13 @@
       </c>
       <c r="S33" s="2"/>
       <c r="T33">
-        <v>228.24</v>
+        <v>2863.3768</v>
       </c>
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K34" s="2"/>
       <c r="N34" t="s">
@@ -967,7 +967,7 @@
       </c>
       <c r="S34" s="2"/>
       <c r="T34">
-        <v>269.65499999999997</v>
+        <v>1261.79</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
@@ -977,31 +977,31 @@
       </c>
       <c r="K35" s="2"/>
       <c r="N35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35">
-        <v>269.64249999999998</v>
+        <v>338.95639999999997</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K36" s="2"/>
       <c r="N36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36">
-        <v>12625.8388</v>
+        <v>12606.725899999999</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37" s="2"/>
       <c r="N37" t="s">
@@ -1009,13 +1009,13 @@
       </c>
       <c r="S37" s="2"/>
       <c r="T37">
-        <v>1264.4450999999999</v>
+        <v>456.68</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K38" s="2"/>
       <c r="N38" t="s">
@@ -1023,41 +1023,41 @@
       </c>
       <c r="S38" s="2"/>
       <c r="T38">
-        <v>506.15089999999998</v>
+        <v>1054.9099000000001</v>
       </c>
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K39" s="2"/>
       <c r="N39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39">
-        <v>13994.11</v>
+        <v>566.72820000000002</v>
       </c>
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K40" s="2"/>
       <c r="N40" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40">
-        <v>2525.3888999999999</v>
+        <v>8511.7579999999998</v>
       </c>
       <c r="AB40" s="2"/>
     </row>
     <row r="41" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K41" s="2"/>
       <c r="N41" t="s">
@@ -1065,13 +1065,13 @@
       </c>
       <c r="S41" s="2"/>
       <c r="T41">
-        <v>2325.7051000000001</v>
+        <v>9067.7985000000008</v>
       </c>
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K42" s="2"/>
       <c r="N42" t="s">
@@ -1079,55 +1079,55 @@
       </c>
       <c r="S42" s="2"/>
       <c r="T42">
-        <v>1163.6212</v>
+        <v>228.24</v>
       </c>
       <c r="AB42" s="2"/>
     </row>
     <row r="43" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K43" s="2"/>
       <c r="N43" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43">
-        <v>6319.8140000000003</v>
+        <v>269.65499999999997</v>
       </c>
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K44" s="2"/>
       <c r="N44" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44">
-        <v>281.66000000000003</v>
+        <v>269.64249999999998</v>
       </c>
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K45" s="2"/>
       <c r="N45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45">
-        <v>1168.5009</v>
+        <v>12625.8388</v>
       </c>
       <c r="AB45" s="2"/>
     </row>
     <row r="46" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K46" s="2"/>
       <c r="N46" t="s">
@@ -1135,13 +1135,13 @@
       </c>
       <c r="S46" s="2"/>
       <c r="T46">
-        <v>1479.3526999999999</v>
+        <v>1264.4450999999999</v>
       </c>
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K47" s="2"/>
       <c r="N47" t="s">
@@ -1149,41 +1149,41 @@
       </c>
       <c r="S47" s="2"/>
       <c r="T47">
-        <v>4192.6170000000002</v>
+        <v>506.15089999999998</v>
       </c>
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K48" s="2"/>
       <c r="N48" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48">
-        <v>625.74890000000005</v>
+        <v>13994.11</v>
       </c>
       <c r="AB48" s="2"/>
     </row>
     <row r="49" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K49" s="2"/>
       <c r="N49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49">
-        <v>2093.9180000000001</v>
+        <v>2525.3888999999999</v>
       </c>
       <c r="AB49" s="2"/>
     </row>
     <row r="50" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K50" s="2"/>
       <c r="N50" t="s">
@@ -1191,13 +1191,13 @@
       </c>
       <c r="S50" s="2"/>
       <c r="T50">
-        <v>711.81669999999997</v>
+        <v>2325.7051000000001</v>
       </c>
       <c r="AB50" s="2"/>
     </row>
     <row r="51" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K51" s="2"/>
       <c r="N51" t="s">
@@ -1205,27 +1205,27 @@
       </c>
       <c r="S51" s="2"/>
       <c r="T51">
-        <v>2307.1005</v>
+        <v>1163.6212</v>
       </c>
       <c r="AB51" s="2"/>
     </row>
     <row r="52" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K52" s="2"/>
       <c r="N52" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52">
-        <v>1150.3203000000001</v>
+        <v>6319.8140000000003</v>
       </c>
       <c r="AB52" s="2"/>
     </row>
     <row r="53" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K53" s="2"/>
       <c r="N53" t="s">
@@ -1233,13 +1233,13 @@
       </c>
       <c r="S53" s="2"/>
       <c r="T53">
-        <v>1157.0929000000001</v>
+        <v>281.66000000000003</v>
       </c>
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K54" s="2"/>
       <c r="N54" t="s">
@@ -1247,13 +1247,13 @@
       </c>
       <c r="S54" s="2"/>
       <c r="T54">
-        <v>2314.66</v>
+        <v>1168.5009</v>
       </c>
       <c r="AB54" s="2"/>
     </row>
     <row r="55" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K55" s="2"/>
       <c r="N55" t="s">
@@ -1261,27 +1261,27 @@
       </c>
       <c r="S55" s="2"/>
       <c r="T55">
-        <v>4988.3356000000003</v>
+        <v>1479.3526999999999</v>
       </c>
       <c r="AB55" s="2"/>
     </row>
     <row r="56" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K56" s="2"/>
       <c r="N56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56">
-        <v>6266.1853000000001</v>
+        <v>4192.6170000000002</v>
       </c>
       <c r="AB56" s="2"/>
     </row>
     <row r="57" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K57" s="2"/>
       <c r="N57" t="s">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="S57" s="2"/>
       <c r="T57">
-        <v>1163.8599999999999</v>
+        <v>625.74890000000005</v>
       </c>
       <c r="AB57" s="2"/>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="K58" s="2"/>
       <c r="N58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58">
-        <v>245.7345</v>
+        <v>2093.9180000000001</v>
       </c>
       <c r="AB58" s="2"/>
     </row>
     <row r="59" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59" s="2"/>
       <c r="N59" t="s">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="S59" s="2"/>
       <c r="T59">
-        <v>977.07</v>
+        <v>711.81669999999997</v>
       </c>
       <c r="AB59" s="2"/>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="S60" s="2"/>
       <c r="T60">
-        <v>537.54</v>
+        <v>2307.1005</v>
       </c>
       <c r="AB60" s="2"/>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="S61" s="2"/>
       <c r="T61">
-        <v>537.70500000000004</v>
+        <v>1150.3203000000001</v>
       </c>
       <c r="AB61" s="2"/>
     </row>
@@ -1359,13 +1359,13 @@
       </c>
       <c r="S62" s="2"/>
       <c r="T62">
-        <v>21501.599999999999</v>
+        <v>1157.0929000000001</v>
       </c>
       <c r="AB62" s="2"/>
     </row>
     <row r="63" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K63" s="2"/>
       <c r="N63" t="s">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="S63" s="2"/>
       <c r="T63">
-        <v>521.05949999999996</v>
+        <v>2314.66</v>
       </c>
       <c r="AB63" s="2"/>
     </row>
@@ -1383,25 +1383,25 @@
       </c>
       <c r="K64" s="2"/>
       <c r="N64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64">
-        <v>254.648</v>
+        <v>4988.3356000000003</v>
       </c>
       <c r="AB64" s="2"/>
     </row>
     <row r="65" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K65" s="2"/>
       <c r="N65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65">
-        <v>473.47</v>
+        <v>6266.1853000000001</v>
       </c>
       <c r="AB65" s="2"/>
     </row>
@@ -1415,27 +1415,27 @@
       </c>
       <c r="S66" s="2"/>
       <c r="T66">
-        <v>5000</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="AB66" s="2"/>
     </row>
     <row r="67" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K67" s="2"/>
       <c r="N67" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67">
-        <v>5390.25</v>
+        <v>245.7345</v>
       </c>
       <c r="AB67" s="2"/>
     </row>
     <row r="68" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K68" s="2"/>
       <c r="N68" t="s">
@@ -1443,27 +1443,27 @@
       </c>
       <c r="S68" s="2"/>
       <c r="T68">
-        <v>618.09</v>
+        <v>977.07</v>
       </c>
       <c r="AB68" s="2"/>
     </row>
     <row r="69" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K69" s="2"/>
       <c r="N69" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69">
-        <v>269.67750000000001</v>
+        <v>537.54</v>
       </c>
       <c r="AB69" s="2"/>
     </row>
     <row r="70" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K70" s="2"/>
       <c r="N70" t="s">
@@ -1471,13 +1471,13 @@
       </c>
       <c r="S70" s="2"/>
       <c r="T70">
-        <v>512.35</v>
+        <v>537.70500000000004</v>
       </c>
       <c r="AB70" s="2"/>
     </row>
     <row r="71" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K71" s="2"/>
       <c r="N71" t="s">
@@ -1485,13 +1485,13 @@
       </c>
       <c r="S71" s="2"/>
       <c r="T71">
-        <v>2060.9513999999999</v>
+        <v>21501.599999999999</v>
       </c>
       <c r="AB71" s="2"/>
     </row>
     <row r="72" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72" s="2"/>
       <c r="N72" t="s">
@@ -1499,21 +1499,21 @@
       </c>
       <c r="S72" s="2"/>
       <c r="T72">
-        <v>8164.6464999999998</v>
+        <v>521.05949999999996</v>
       </c>
       <c r="AB72" s="2"/>
     </row>
     <row r="73" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K73" s="2"/>
       <c r="N73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73">
-        <v>541.71</v>
+        <v>254.648</v>
       </c>
       <c r="AB73" s="2"/>
     </row>
@@ -1523,17 +1523,17 @@
       </c>
       <c r="K74" s="2"/>
       <c r="N74" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74">
-        <v>272.35500000000002</v>
+        <v>473.47</v>
       </c>
       <c r="AB74" s="2"/>
     </row>
     <row r="75" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K75" s="2"/>
       <c r="N75" t="s">
@@ -1541,13 +1541,13 @@
       </c>
       <c r="S75" s="2"/>
       <c r="T75">
-        <v>532.89419999999996</v>
+        <v>5000</v>
       </c>
       <c r="AB75" s="2"/>
     </row>
     <row r="76" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K76" s="2"/>
       <c r="N76" t="s">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="S76" s="2"/>
       <c r="T76">
-        <v>2000.5583999999999</v>
+        <v>5390.25</v>
       </c>
       <c r="AB76" s="2"/>
     </row>
@@ -1569,21 +1569,21 @@
       </c>
       <c r="S77" s="2"/>
       <c r="T77">
-        <v>500</v>
+        <v>618.09</v>
       </c>
       <c r="AB77" s="2"/>
     </row>
     <row r="78" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K78" s="2"/>
       <c r="N78" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78">
-        <v>250</v>
+        <v>269.67750000000001</v>
       </c>
       <c r="AB78" s="2"/>
     </row>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="S79" s="2"/>
       <c r="T79">
-        <v>1000.1964</v>
+        <v>512.35</v>
       </c>
       <c r="AB79" s="2"/>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="S80" s="2"/>
       <c r="T80">
-        <v>250</v>
+        <v>2060.9513999999999</v>
       </c>
       <c r="AB80" s="2"/>
     </row>
@@ -1625,41 +1625,41 @@
       </c>
       <c r="S81" s="2"/>
       <c r="T81">
-        <v>2000</v>
+        <v>8164.6464999999998</v>
       </c>
       <c r="AB81" s="2"/>
     </row>
     <row r="82" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K82" s="2"/>
       <c r="N82" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S82" s="2"/>
       <c r="T82">
-        <v>1410.91</v>
+        <v>541.71</v>
       </c>
       <c r="AB82" s="2"/>
     </row>
     <row r="83" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K83" s="2"/>
       <c r="N83" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83">
-        <v>843.71820000000002</v>
+        <v>272.35500000000002</v>
       </c>
       <c r="AB83" s="2"/>
     </row>
     <row r="84" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84" s="2"/>
       <c r="N84" t="s">
@@ -1667,51 +1667,232 @@
       </c>
       <c r="S84" s="2"/>
       <c r="T84">
-        <v>1146.5808</v>
+        <v>532.89419999999996</v>
       </c>
       <c r="AB84" s="2"/>
     </row>
     <row r="85" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K85" s="2"/>
       <c r="N85" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85">
-        <v>270.23</v>
+        <v>2000.5583999999999</v>
       </c>
       <c r="AB85" s="2"/>
     </row>
     <row r="86" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K86" s="2"/>
       <c r="N86" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86">
-        <v>312.98829999999998</v>
+        <v>500</v>
       </c>
       <c r="AB86" s="2"/>
     </row>
     <row r="87" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K87" s="2"/>
       <c r="N87" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87">
+        <v>250</v>
+      </c>
+      <c r="AB87" s="2"/>
+    </row>
+    <row r="88" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="K88" s="2"/>
+      <c r="N88" t="s">
+        <v>4</v>
+      </c>
+      <c r="S88" s="2"/>
+      <c r="T88">
+        <v>1000.1964</v>
+      </c>
+      <c r="AB88" s="2"/>
+    </row>
+    <row r="89" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="K89" s="2"/>
+      <c r="N89" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="2"/>
+      <c r="T89">
+        <v>250</v>
+      </c>
+      <c r="AB89" s="2"/>
+    </row>
+    <row r="90" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="K90" s="2"/>
+      <c r="N90" t="s">
+        <v>4</v>
+      </c>
+      <c r="S90" s="2"/>
+      <c r="T90">
+        <v>2000</v>
+      </c>
+      <c r="AB90" s="2"/>
+    </row>
+    <row r="91" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="N91" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="2"/>
+      <c r="T91">
+        <v>1410.91</v>
+      </c>
+      <c r="AB91" s="2"/>
+    </row>
+    <row r="92" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="N92" t="s">
+        <v>4</v>
+      </c>
+      <c r="S92" s="2"/>
+      <c r="T92">
+        <v>843.71820000000002</v>
+      </c>
+      <c r="AB92" s="2"/>
+    </row>
+    <row r="93" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="N93" t="s">
+        <v>4</v>
+      </c>
+      <c r="S93" s="2"/>
+      <c r="T93">
+        <v>1146.5808</v>
+      </c>
+      <c r="AB93" s="2"/>
+    </row>
+    <row r="94" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="N94" t="s">
+        <v>7</v>
+      </c>
+      <c r="S94" s="2"/>
+      <c r="T94">
+        <v>270.23</v>
+      </c>
+      <c r="AB94" s="2"/>
+    </row>
+    <row r="95" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="K95" s="2"/>
+      <c r="N95" t="s">
+        <v>5</v>
+      </c>
+      <c r="S95" s="2"/>
+      <c r="T95">
+        <v>312.98829999999998</v>
+      </c>
+      <c r="AB95" s="2"/>
+    </row>
+    <row r="96" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="K96" s="2"/>
+      <c r="N96" t="s">
+        <v>7</v>
+      </c>
+      <c r="S96" s="2"/>
+      <c r="T96">
         <v>538.73540000000003</v>
       </c>
-      <c r="AB87" s="2"/>
+      <c r="AB96" s="2"/>
+    </row>
+    <row r="97" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="N97" t="s">
+        <v>7</v>
+      </c>
+      <c r="T97">
+        <v>267.97000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="N98" t="s">
+        <v>7</v>
+      </c>
+      <c r="T98">
+        <v>269.255</v>
+      </c>
+    </row>
+    <row r="99" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="N99" t="s">
+        <v>7</v>
+      </c>
+      <c r="T99">
+        <v>269.5575</v>
+      </c>
+    </row>
+    <row r="100" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="N100" t="s">
+        <v>7</v>
+      </c>
+      <c r="T100">
+        <v>269.20999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>7</v>
+      </c>
+      <c r="T101">
+        <v>808.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
